--- a/RP_Change_time/RP_change_all.xlsx
+++ b/RP_Change_time/RP_change_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\RP_Change_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27362A81-A6A8-4EC3-A7D6-9DF9A89B1CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D460BB-FCDC-4956-B502-F3E914BA8BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="4830" windowWidth="14380" windowHeight="8570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="3800" windowWidth="12640" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1065"/>
+  <dimension ref="A1:D1749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1052" workbookViewId="0">
-      <selection activeCell="L1057" sqref="L1057"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
+      <selection activeCell="D1066" sqref="D1066:D1749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15312,6 +15312,9582 @@
         <v>118.230407536</v>
       </c>
     </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1066">
+        <v>0.5</v>
+      </c>
+      <c r="B1066">
+        <v>1</v>
+      </c>
+      <c r="C1066">
+        <v>0</v>
+      </c>
+      <c r="D1066">
+        <v>1.4813959999999999</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1067">
+        <v>0.5</v>
+      </c>
+      <c r="B1067">
+        <v>1</v>
+      </c>
+      <c r="C1067">
+        <v>15</v>
+      </c>
+      <c r="D1067">
+        <v>1.542168</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1068">
+        <v>0.5</v>
+      </c>
+      <c r="B1068">
+        <v>1</v>
+      </c>
+      <c r="C1068">
+        <v>30</v>
+      </c>
+      <c r="D1068">
+        <v>1.7744359999999999</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1069">
+        <v>0.5</v>
+      </c>
+      <c r="B1069">
+        <v>1</v>
+      </c>
+      <c r="C1069">
+        <v>45</v>
+      </c>
+      <c r="D1069">
+        <v>2.3604880000000001</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1070">
+        <v>2.5</v>
+      </c>
+      <c r="B1070">
+        <v>1</v>
+      </c>
+      <c r="C1070">
+        <v>0</v>
+      </c>
+      <c r="D1070">
+        <v>1.3150809999999999</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1071">
+        <v>2.5</v>
+      </c>
+      <c r="B1071">
+        <v>1</v>
+      </c>
+      <c r="C1071">
+        <v>15</v>
+      </c>
+      <c r="D1071">
+        <v>1.34832</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1072">
+        <v>2.5</v>
+      </c>
+      <c r="B1072">
+        <v>1</v>
+      </c>
+      <c r="C1072">
+        <v>30</v>
+      </c>
+      <c r="D1072">
+        <v>1.500075</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1073">
+        <v>2.5</v>
+      </c>
+      <c r="B1073">
+        <v>1</v>
+      </c>
+      <c r="C1073">
+        <v>45</v>
+      </c>
+      <c r="D1073">
+        <v>2.0258639999999999</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1074">
+        <v>4.5</v>
+      </c>
+      <c r="B1074">
+        <v>1</v>
+      </c>
+      <c r="C1074">
+        <v>0</v>
+      </c>
+      <c r="D1074">
+        <v>1.46329</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1075">
+        <v>4.5</v>
+      </c>
+      <c r="B1075">
+        <v>1</v>
+      </c>
+      <c r="C1075">
+        <v>15</v>
+      </c>
+      <c r="D1075">
+        <v>1.55525</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1076">
+        <v>4.5</v>
+      </c>
+      <c r="B1076">
+        <v>1</v>
+      </c>
+      <c r="C1076">
+        <v>30</v>
+      </c>
+      <c r="D1076">
+        <v>1.67157</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1077">
+        <v>4.5</v>
+      </c>
+      <c r="B1077">
+        <v>1</v>
+      </c>
+      <c r="C1077">
+        <v>45</v>
+      </c>
+      <c r="D1077">
+        <v>3.2602150000000001</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1078">
+        <v>6.5</v>
+      </c>
+      <c r="B1078">
+        <v>1</v>
+      </c>
+      <c r="C1078">
+        <v>0</v>
+      </c>
+      <c r="D1078">
+        <v>1.5751599999999999</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1079">
+        <v>6.5</v>
+      </c>
+      <c r="B1079">
+        <v>1</v>
+      </c>
+      <c r="C1079">
+        <v>15</v>
+      </c>
+      <c r="D1079">
+        <v>1.6636740000000001</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1080">
+        <v>6.5</v>
+      </c>
+      <c r="B1080">
+        <v>1</v>
+      </c>
+      <c r="C1080">
+        <v>30</v>
+      </c>
+      <c r="D1080">
+        <v>1.7861130000000001</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1081">
+        <v>6.5</v>
+      </c>
+      <c r="B1081">
+        <v>1</v>
+      </c>
+      <c r="C1081">
+        <v>45</v>
+      </c>
+      <c r="D1081">
+        <v>2.7956720000000002</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1082">
+        <v>8.5</v>
+      </c>
+      <c r="B1082">
+        <v>1</v>
+      </c>
+      <c r="C1082">
+        <v>0</v>
+      </c>
+      <c r="D1082">
+        <v>1.695322</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1083">
+        <v>8.5</v>
+      </c>
+      <c r="B1083">
+        <v>1</v>
+      </c>
+      <c r="C1083">
+        <v>15</v>
+      </c>
+      <c r="D1083">
+        <v>1.7696860000000001</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1084">
+        <v>8.5</v>
+      </c>
+      <c r="B1084">
+        <v>1</v>
+      </c>
+      <c r="C1084">
+        <v>30</v>
+      </c>
+      <c r="D1084">
+        <v>1.880549</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1085">
+        <v>8.5</v>
+      </c>
+      <c r="B1085">
+        <v>1</v>
+      </c>
+      <c r="C1085">
+        <v>45</v>
+      </c>
+      <c r="D1085">
+        <v>2.1452369999999998</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1086">
+        <v>10.5</v>
+      </c>
+      <c r="B1086">
+        <v>1</v>
+      </c>
+      <c r="C1086">
+        <v>0</v>
+      </c>
+      <c r="D1086">
+        <v>1.807987</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1087">
+        <v>10.5</v>
+      </c>
+      <c r="B1087">
+        <v>1</v>
+      </c>
+      <c r="C1087">
+        <v>15</v>
+      </c>
+      <c r="D1087">
+        <v>1.865367</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1088">
+        <v>10.5</v>
+      </c>
+      <c r="B1088">
+        <v>1</v>
+      </c>
+      <c r="C1088">
+        <v>30</v>
+      </c>
+      <c r="D1088">
+        <v>1.949981</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1089">
+        <v>10.5</v>
+      </c>
+      <c r="B1089">
+        <v>1</v>
+      </c>
+      <c r="C1089">
+        <v>45</v>
+      </c>
+      <c r="D1089">
+        <v>2.1800860000000002</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1090">
+        <v>12.5</v>
+      </c>
+      <c r="B1090">
+        <v>1</v>
+      </c>
+      <c r="C1090">
+        <v>0</v>
+      </c>
+      <c r="D1090">
+        <v>1.900881</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1091">
+        <v>12.5</v>
+      </c>
+      <c r="B1091">
+        <v>1</v>
+      </c>
+      <c r="C1091">
+        <v>15</v>
+      </c>
+      <c r="D1091">
+        <v>1.960896</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1092">
+        <v>12.5</v>
+      </c>
+      <c r="B1092">
+        <v>1</v>
+      </c>
+      <c r="C1092">
+        <v>30</v>
+      </c>
+      <c r="D1092">
+        <v>2.0406960000000001</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1093">
+        <v>12.5</v>
+      </c>
+      <c r="B1093">
+        <v>1</v>
+      </c>
+      <c r="C1093">
+        <v>45</v>
+      </c>
+      <c r="D1093">
+        <v>2.5199889999999998</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1094">
+        <v>14.5</v>
+      </c>
+      <c r="B1094">
+        <v>1</v>
+      </c>
+      <c r="C1094">
+        <v>0</v>
+      </c>
+      <c r="D1094">
+        <v>2.199926</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1095">
+        <v>14.5</v>
+      </c>
+      <c r="B1095">
+        <v>1</v>
+      </c>
+      <c r="C1095">
+        <v>15</v>
+      </c>
+      <c r="D1095">
+        <v>2.3250350000000002</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1096">
+        <v>14.5</v>
+      </c>
+      <c r="B1096">
+        <v>1</v>
+      </c>
+      <c r="C1096">
+        <v>30</v>
+      </c>
+      <c r="D1096">
+        <v>2.474977</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1097">
+        <v>14.5</v>
+      </c>
+      <c r="B1097">
+        <v>1</v>
+      </c>
+      <c r="C1097">
+        <v>45</v>
+      </c>
+      <c r="D1097">
+        <v>3.0121159999999998</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1098">
+        <v>16.5</v>
+      </c>
+      <c r="B1098">
+        <v>1</v>
+      </c>
+      <c r="C1098">
+        <v>0</v>
+      </c>
+      <c r="D1098">
+        <v>2.4628019999999999</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1099">
+        <v>16.5</v>
+      </c>
+      <c r="B1099">
+        <v>1</v>
+      </c>
+      <c r="C1099">
+        <v>15</v>
+      </c>
+      <c r="D1099">
+        <v>2.5922429999999999</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1100">
+        <v>16.5</v>
+      </c>
+      <c r="B1100">
+        <v>1</v>
+      </c>
+      <c r="C1100">
+        <v>30</v>
+      </c>
+      <c r="D1100">
+        <v>2.826193</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1101">
+        <v>16.5</v>
+      </c>
+      <c r="B1101">
+        <v>1</v>
+      </c>
+      <c r="C1101">
+        <v>45</v>
+      </c>
+      <c r="D1101">
+        <v>3.2605599999999999</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1102">
+        <v>18.5</v>
+      </c>
+      <c r="B1102">
+        <v>1</v>
+      </c>
+      <c r="C1102">
+        <v>0</v>
+      </c>
+      <c r="D1102">
+        <v>2.9319829999999998</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1103">
+        <v>18.5</v>
+      </c>
+      <c r="B1103">
+        <v>1</v>
+      </c>
+      <c r="C1103">
+        <v>15</v>
+      </c>
+      <c r="D1103">
+        <v>3.1064600000000002</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1104">
+        <v>18.5</v>
+      </c>
+      <c r="B1104">
+        <v>1</v>
+      </c>
+      <c r="C1104">
+        <v>30</v>
+      </c>
+      <c r="D1104">
+        <v>3.277485</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1105">
+        <v>18.5</v>
+      </c>
+      <c r="B1105">
+        <v>1</v>
+      </c>
+      <c r="C1105">
+        <v>45</v>
+      </c>
+      <c r="D1105">
+        <v>3.580346</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1106">
+        <v>20.5</v>
+      </c>
+      <c r="B1106">
+        <v>1</v>
+      </c>
+      <c r="C1106">
+        <v>0</v>
+      </c>
+      <c r="D1106">
+        <v>3.4609329999999998</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1107">
+        <v>20.5</v>
+      </c>
+      <c r="B1107">
+        <v>1</v>
+      </c>
+      <c r="C1107">
+        <v>15</v>
+      </c>
+      <c r="D1107">
+        <v>3.609369</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1108">
+        <v>20.5</v>
+      </c>
+      <c r="B1108">
+        <v>1</v>
+      </c>
+      <c r="C1108">
+        <v>30</v>
+      </c>
+      <c r="D1108">
+        <v>3.748885</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1109">
+        <v>20.5</v>
+      </c>
+      <c r="B1109">
+        <v>1</v>
+      </c>
+      <c r="C1109">
+        <v>45</v>
+      </c>
+      <c r="D1109">
+        <v>3.9461469999999998</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1110">
+        <v>22.5</v>
+      </c>
+      <c r="B1110">
+        <v>1</v>
+      </c>
+      <c r="C1110">
+        <v>0</v>
+      </c>
+      <c r="D1110">
+        <v>3.9443069999999998</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1111">
+        <v>22.5</v>
+      </c>
+      <c r="B1111">
+        <v>1</v>
+      </c>
+      <c r="C1111">
+        <v>15</v>
+      </c>
+      <c r="D1111">
+        <v>4.0111939999999997</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1112">
+        <v>22.5</v>
+      </c>
+      <c r="B1112">
+        <v>1</v>
+      </c>
+      <c r="C1112">
+        <v>30</v>
+      </c>
+      <c r="D1112">
+        <v>4.0671250000000008</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1113">
+        <v>22.5</v>
+      </c>
+      <c r="B1113">
+        <v>1</v>
+      </c>
+      <c r="C1113">
+        <v>45</v>
+      </c>
+      <c r="D1113">
+        <v>4.1307669999999996</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1114">
+        <v>24.5</v>
+      </c>
+      <c r="B1114">
+        <v>1</v>
+      </c>
+      <c r="C1114">
+        <v>0</v>
+      </c>
+      <c r="D1114">
+        <v>4.1305290000000001</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1115">
+        <v>24.5</v>
+      </c>
+      <c r="B1115">
+        <v>1</v>
+      </c>
+      <c r="C1115">
+        <v>15</v>
+      </c>
+      <c r="D1115">
+        <v>4.1796430000000004</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1116">
+        <v>24.5</v>
+      </c>
+      <c r="B1116">
+        <v>1</v>
+      </c>
+      <c r="C1116">
+        <v>30</v>
+      </c>
+      <c r="D1116">
+        <v>4.2236260000000003</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1117">
+        <v>24.5</v>
+      </c>
+      <c r="B1117">
+        <v>1</v>
+      </c>
+      <c r="C1117">
+        <v>45</v>
+      </c>
+      <c r="D1117">
+        <v>4.2734799999999993</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1118">
+        <v>26.5</v>
+      </c>
+      <c r="B1118">
+        <v>1</v>
+      </c>
+      <c r="C1118">
+        <v>0</v>
+      </c>
+      <c r="D1118">
+        <v>4.2734249999999996</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1119">
+        <v>26.5</v>
+      </c>
+      <c r="B1119">
+        <v>1</v>
+      </c>
+      <c r="C1119">
+        <v>15</v>
+      </c>
+      <c r="D1119">
+        <v>4.319261</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1120">
+        <v>26.5</v>
+      </c>
+      <c r="B1120">
+        <v>1</v>
+      </c>
+      <c r="C1120">
+        <v>30</v>
+      </c>
+      <c r="D1120">
+        <v>4.3637009999999998</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1121">
+        <v>26.5</v>
+      </c>
+      <c r="B1121">
+        <v>1</v>
+      </c>
+      <c r="C1121">
+        <v>45</v>
+      </c>
+      <c r="D1121">
+        <v>4.4102619999999986</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1122">
+        <v>28.5</v>
+      </c>
+      <c r="B1122">
+        <v>1</v>
+      </c>
+      <c r="C1122">
+        <v>0</v>
+      </c>
+      <c r="D1122">
+        <v>4.4163360000000003</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1123">
+        <v>28.5</v>
+      </c>
+      <c r="B1123">
+        <v>1</v>
+      </c>
+      <c r="C1123">
+        <v>15</v>
+      </c>
+      <c r="D1123">
+        <v>4.4653320000000001</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1124">
+        <v>28.5</v>
+      </c>
+      <c r="B1124">
+        <v>1</v>
+      </c>
+      <c r="C1124">
+        <v>30</v>
+      </c>
+      <c r="D1124">
+        <v>4.5112199999999998</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1125">
+        <v>28.5</v>
+      </c>
+      <c r="B1125">
+        <v>1</v>
+      </c>
+      <c r="C1125">
+        <v>45</v>
+      </c>
+      <c r="D1125">
+        <v>4.557512</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1126">
+        <v>30.5</v>
+      </c>
+      <c r="B1126">
+        <v>1</v>
+      </c>
+      <c r="C1126">
+        <v>0</v>
+      </c>
+      <c r="D1126">
+        <v>4.5599189999999998</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1127">
+        <v>30.5</v>
+      </c>
+      <c r="B1127">
+        <v>1</v>
+      </c>
+      <c r="C1127">
+        <v>15</v>
+      </c>
+      <c r="D1127">
+        <v>4.6318389999999994</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1128">
+        <v>30.5</v>
+      </c>
+      <c r="B1128">
+        <v>1</v>
+      </c>
+      <c r="C1128">
+        <v>30</v>
+      </c>
+      <c r="D1128">
+        <v>4.6903620000000004</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1129">
+        <v>30.5</v>
+      </c>
+      <c r="B1129">
+        <v>1</v>
+      </c>
+      <c r="C1129">
+        <v>45</v>
+      </c>
+      <c r="D1129">
+        <v>4.7511610000000006</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1130">
+        <v>32.5</v>
+      </c>
+      <c r="B1130">
+        <v>1</v>
+      </c>
+      <c r="C1130">
+        <v>0</v>
+      </c>
+      <c r="D1130">
+        <v>4.7904339999999994</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1131">
+        <v>32.5</v>
+      </c>
+      <c r="B1131">
+        <v>1</v>
+      </c>
+      <c r="C1131">
+        <v>15</v>
+      </c>
+      <c r="D1131">
+        <v>4.9279679999999999</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1132">
+        <v>32.5</v>
+      </c>
+      <c r="B1132">
+        <v>1</v>
+      </c>
+      <c r="C1132">
+        <v>30</v>
+      </c>
+      <c r="D1132">
+        <v>5.0288639999999996</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1133">
+        <v>32.5</v>
+      </c>
+      <c r="B1133">
+        <v>1</v>
+      </c>
+      <c r="C1133">
+        <v>45</v>
+      </c>
+      <c r="D1133">
+        <v>5.1322979999999996</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1134">
+        <v>34.5</v>
+      </c>
+      <c r="B1134">
+        <v>1</v>
+      </c>
+      <c r="C1134">
+        <v>0</v>
+      </c>
+      <c r="D1134">
+        <v>5.3267509999999998</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1135">
+        <v>34.5</v>
+      </c>
+      <c r="B1135">
+        <v>1</v>
+      </c>
+      <c r="C1135">
+        <v>15</v>
+      </c>
+      <c r="D1135">
+        <v>5.5776050000000001</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1136">
+        <v>34.5</v>
+      </c>
+      <c r="B1136">
+        <v>1</v>
+      </c>
+      <c r="C1136">
+        <v>30</v>
+      </c>
+      <c r="D1136">
+        <v>5.7890230000000003</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1137">
+        <v>34.5</v>
+      </c>
+      <c r="B1137">
+        <v>1</v>
+      </c>
+      <c r="C1137">
+        <v>45</v>
+      </c>
+      <c r="D1137">
+        <v>5.9593119999999997</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1138">
+        <v>35</v>
+      </c>
+      <c r="B1138">
+        <v>1</v>
+      </c>
+      <c r="C1138">
+        <v>0</v>
+      </c>
+      <c r="D1138">
+        <v>5.2823030000000006</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1139">
+        <v>35</v>
+      </c>
+      <c r="B1139">
+        <v>1</v>
+      </c>
+      <c r="C1139">
+        <v>15</v>
+      </c>
+      <c r="D1139">
+        <v>5.5338779999999996</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1140">
+        <v>35</v>
+      </c>
+      <c r="B1140">
+        <v>1</v>
+      </c>
+      <c r="C1140">
+        <v>30</v>
+      </c>
+      <c r="D1140">
+        <v>5.7501749999999996</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1141">
+        <v>35</v>
+      </c>
+      <c r="B1141">
+        <v>1</v>
+      </c>
+      <c r="C1141">
+        <v>45</v>
+      </c>
+      <c r="D1141">
+        <v>5.9278660000000007</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1142">
+        <v>0.5</v>
+      </c>
+      <c r="B1142">
+        <v>1.25</v>
+      </c>
+      <c r="C1142">
+        <v>0</v>
+      </c>
+      <c r="D1142">
+        <v>2.0412889999999999</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1143">
+        <v>0.5</v>
+      </c>
+      <c r="B1143">
+        <v>1.25</v>
+      </c>
+      <c r="C1143">
+        <v>15</v>
+      </c>
+      <c r="D1143">
+        <v>2.133467</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1144">
+        <v>0.5</v>
+      </c>
+      <c r="B1144">
+        <v>1.25</v>
+      </c>
+      <c r="C1144">
+        <v>30</v>
+      </c>
+      <c r="D1144">
+        <v>2.4871430000000001</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1145">
+        <v>0.5</v>
+      </c>
+      <c r="B1145">
+        <v>1.25</v>
+      </c>
+      <c r="C1145">
+        <v>45</v>
+      </c>
+      <c r="D1145">
+        <v>3.3810530000000001</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1146">
+        <v>2.5</v>
+      </c>
+      <c r="B1146">
+        <v>1.25</v>
+      </c>
+      <c r="C1146">
+        <v>0</v>
+      </c>
+      <c r="D1146">
+        <v>1.743269</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1147">
+        <v>2.5</v>
+      </c>
+      <c r="B1147">
+        <v>1.25</v>
+      </c>
+      <c r="C1147">
+        <v>15</v>
+      </c>
+      <c r="D1147">
+        <v>1.8142229999999999</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1148">
+        <v>2.5</v>
+      </c>
+      <c r="B1148">
+        <v>1.25</v>
+      </c>
+      <c r="C1148">
+        <v>30</v>
+      </c>
+      <c r="D1148">
+        <v>2.1311619999999998</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1149">
+        <v>2.5</v>
+      </c>
+      <c r="B1149">
+        <v>1.25</v>
+      </c>
+      <c r="C1149">
+        <v>45</v>
+      </c>
+      <c r="D1149">
+        <v>2.7226490000000001</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1150">
+        <v>4.5</v>
+      </c>
+      <c r="B1150">
+        <v>1.25</v>
+      </c>
+      <c r="C1150">
+        <v>0</v>
+      </c>
+      <c r="D1150">
+        <v>1.614474</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1151">
+        <v>4.5</v>
+      </c>
+      <c r="B1151">
+        <v>1.25</v>
+      </c>
+      <c r="C1151">
+        <v>15</v>
+      </c>
+      <c r="D1151">
+        <v>1.724761</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1152">
+        <v>4.5</v>
+      </c>
+      <c r="B1152">
+        <v>1.25</v>
+      </c>
+      <c r="C1152">
+        <v>30</v>
+      </c>
+      <c r="D1152">
+        <v>1.9973920000000001</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1153">
+        <v>4.5</v>
+      </c>
+      <c r="B1153">
+        <v>1.25</v>
+      </c>
+      <c r="C1153">
+        <v>45</v>
+      </c>
+      <c r="D1153">
+        <v>2.5736330000000001</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1154">
+        <v>6.5</v>
+      </c>
+      <c r="B1154">
+        <v>1.25</v>
+      </c>
+      <c r="C1154">
+        <v>0</v>
+      </c>
+      <c r="D1154">
+        <v>1.675143</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1155">
+        <v>6.5</v>
+      </c>
+      <c r="B1155">
+        <v>1.25</v>
+      </c>
+      <c r="C1155">
+        <v>15</v>
+      </c>
+      <c r="D1155">
+        <v>1.9161239999999999</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1156">
+        <v>6.5</v>
+      </c>
+      <c r="B1156">
+        <v>1.25</v>
+      </c>
+      <c r="C1156">
+        <v>30</v>
+      </c>
+      <c r="D1156">
+        <v>2.1025770000000001</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1157">
+        <v>6.5</v>
+      </c>
+      <c r="B1157">
+        <v>1.25</v>
+      </c>
+      <c r="C1157">
+        <v>45</v>
+      </c>
+      <c r="D1157">
+        <v>2.5107020000000002</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1158">
+        <v>8.5</v>
+      </c>
+      <c r="B1158">
+        <v>1.25</v>
+      </c>
+      <c r="C1158">
+        <v>0</v>
+      </c>
+      <c r="D1158">
+        <v>1.7623279999999999</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1159">
+        <v>8.5</v>
+      </c>
+      <c r="B1159">
+        <v>1.25</v>
+      </c>
+      <c r="C1159">
+        <v>15</v>
+      </c>
+      <c r="D1159">
+        <v>1.9499580000000001</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1160">
+        <v>8.5</v>
+      </c>
+      <c r="B1160">
+        <v>1.25</v>
+      </c>
+      <c r="C1160">
+        <v>30</v>
+      </c>
+      <c r="D1160">
+        <v>2.194731</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1161">
+        <v>8.5</v>
+      </c>
+      <c r="B1161">
+        <v>1.25</v>
+      </c>
+      <c r="C1161">
+        <v>45</v>
+      </c>
+      <c r="D1161">
+        <v>4.0074000000000014</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1162">
+        <v>10.5</v>
+      </c>
+      <c r="B1162">
+        <v>1.25</v>
+      </c>
+      <c r="C1162">
+        <v>0</v>
+      </c>
+      <c r="D1162">
+        <v>1.842686</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1163">
+        <v>10.5</v>
+      </c>
+      <c r="B1163">
+        <v>1.25</v>
+      </c>
+      <c r="C1163">
+        <v>15</v>
+      </c>
+      <c r="D1163">
+        <v>2.0007009999999998</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1164">
+        <v>10.5</v>
+      </c>
+      <c r="B1164">
+        <v>1.25</v>
+      </c>
+      <c r="C1164">
+        <v>30</v>
+      </c>
+      <c r="D1164">
+        <v>2.2412779999999999</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1165">
+        <v>10.5</v>
+      </c>
+      <c r="B1165">
+        <v>1.25</v>
+      </c>
+      <c r="C1165">
+        <v>45</v>
+      </c>
+      <c r="D1165">
+        <v>3.5303100000000001</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1166">
+        <v>12.5</v>
+      </c>
+      <c r="B1166">
+        <v>1.25</v>
+      </c>
+      <c r="C1166">
+        <v>0</v>
+      </c>
+      <c r="D1166">
+        <v>1.9049609999999999</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1167">
+        <v>12.5</v>
+      </c>
+      <c r="B1167">
+        <v>1.25</v>
+      </c>
+      <c r="C1167">
+        <v>15</v>
+      </c>
+      <c r="D1167">
+        <v>2.039269</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1168">
+        <v>12.5</v>
+      </c>
+      <c r="B1168">
+        <v>1.25</v>
+      </c>
+      <c r="C1168">
+        <v>30</v>
+      </c>
+      <c r="D1168">
+        <v>2.2513990000000002</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1169">
+        <v>12.5</v>
+      </c>
+      <c r="B1169">
+        <v>1.25</v>
+      </c>
+      <c r="C1169">
+        <v>45</v>
+      </c>
+      <c r="D1169">
+        <v>2.741546</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1170">
+        <v>14.5</v>
+      </c>
+      <c r="B1170">
+        <v>1.25</v>
+      </c>
+      <c r="C1170">
+        <v>0</v>
+      </c>
+      <c r="D1170">
+        <v>1.968321</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1171">
+        <v>14.5</v>
+      </c>
+      <c r="B1171">
+        <v>1.25</v>
+      </c>
+      <c r="C1171">
+        <v>15</v>
+      </c>
+      <c r="D1171">
+        <v>2.0853579999999998</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1172">
+        <v>14.5</v>
+      </c>
+      <c r="B1172">
+        <v>1.25</v>
+      </c>
+      <c r="C1172">
+        <v>30</v>
+      </c>
+      <c r="D1172">
+        <v>2.2886259999999998</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1173">
+        <v>14.5</v>
+      </c>
+      <c r="B1173">
+        <v>1.25</v>
+      </c>
+      <c r="C1173">
+        <v>45</v>
+      </c>
+      <c r="D1173">
+        <v>2.7301150000000001</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1174">
+        <v>16.5</v>
+      </c>
+      <c r="B1174">
+        <v>1.25</v>
+      </c>
+      <c r="C1174">
+        <v>0</v>
+      </c>
+      <c r="D1174">
+        <v>2.0412970000000001</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1175">
+        <v>16.5</v>
+      </c>
+      <c r="B1175">
+        <v>1.25</v>
+      </c>
+      <c r="C1175">
+        <v>15</v>
+      </c>
+      <c r="D1175">
+        <v>2.1410930000000001</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1176">
+        <v>16.5</v>
+      </c>
+      <c r="B1176">
+        <v>1.25</v>
+      </c>
+      <c r="C1176">
+        <v>30</v>
+      </c>
+      <c r="D1176">
+        <v>2.3169729999999999</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1177">
+        <v>16.5</v>
+      </c>
+      <c r="B1177">
+        <v>1.25</v>
+      </c>
+      <c r="C1177">
+        <v>45</v>
+      </c>
+      <c r="D1177">
+        <v>2.7437529999999999</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1178">
+        <v>18.5</v>
+      </c>
+      <c r="B1178">
+        <v>1.25</v>
+      </c>
+      <c r="C1178">
+        <v>0</v>
+      </c>
+      <c r="D1178">
+        <v>2.1121799999999999</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1179">
+        <v>18.5</v>
+      </c>
+      <c r="B1179">
+        <v>1.25</v>
+      </c>
+      <c r="C1179">
+        <v>15</v>
+      </c>
+      <c r="D1179">
+        <v>2.2039019999999998</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1180">
+        <v>18.5</v>
+      </c>
+      <c r="B1180">
+        <v>1.25</v>
+      </c>
+      <c r="C1180">
+        <v>30</v>
+      </c>
+      <c r="D1180">
+        <v>2.3498679999999998</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1181">
+        <v>18.5</v>
+      </c>
+      <c r="B1181">
+        <v>1.25</v>
+      </c>
+      <c r="C1181">
+        <v>45</v>
+      </c>
+      <c r="D1181">
+        <v>2.7641100000000001</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1182">
+        <v>20.5</v>
+      </c>
+      <c r="B1182">
+        <v>1.25</v>
+      </c>
+      <c r="C1182">
+        <v>0</v>
+      </c>
+      <c r="D1182">
+        <v>2.1839840000000001</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1183">
+        <v>20.5</v>
+      </c>
+      <c r="B1183">
+        <v>1.25</v>
+      </c>
+      <c r="C1183">
+        <v>15</v>
+      </c>
+      <c r="D1183">
+        <v>2.2684190000000002</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1184">
+        <v>20.5</v>
+      </c>
+      <c r="B1184">
+        <v>1.25</v>
+      </c>
+      <c r="C1184">
+        <v>30</v>
+      </c>
+      <c r="D1184">
+        <v>2.3891840000000002</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1185">
+        <v>20.5</v>
+      </c>
+      <c r="B1185">
+        <v>1.25</v>
+      </c>
+      <c r="C1185">
+        <v>45</v>
+      </c>
+      <c r="D1185">
+        <v>2.770705</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1186">
+        <v>22.5</v>
+      </c>
+      <c r="B1186">
+        <v>1.25</v>
+      </c>
+      <c r="C1186">
+        <v>0</v>
+      </c>
+      <c r="D1186">
+        <v>2.2467199999999998</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1187">
+        <v>22.5</v>
+      </c>
+      <c r="B1187">
+        <v>1.25</v>
+      </c>
+      <c r="C1187">
+        <v>15</v>
+      </c>
+      <c r="D1187">
+        <v>2.3253279999999998</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1188">
+        <v>22.5</v>
+      </c>
+      <c r="B1188">
+        <v>1.25</v>
+      </c>
+      <c r="C1188">
+        <v>30</v>
+      </c>
+      <c r="D1188">
+        <v>2.4325760000000001</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1189">
+        <v>22.5</v>
+      </c>
+      <c r="B1189">
+        <v>1.25</v>
+      </c>
+      <c r="C1189">
+        <v>45</v>
+      </c>
+      <c r="D1189">
+        <v>2.8133219999999999</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1190">
+        <v>24.5</v>
+      </c>
+      <c r="B1190">
+        <v>1.25</v>
+      </c>
+      <c r="C1190">
+        <v>0</v>
+      </c>
+      <c r="D1190">
+        <v>2.300875</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1191">
+        <v>24.5</v>
+      </c>
+      <c r="B1191">
+        <v>1.25</v>
+      </c>
+      <c r="C1191">
+        <v>15</v>
+      </c>
+      <c r="D1191">
+        <v>2.3778049999999999</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1192">
+        <v>24.5</v>
+      </c>
+      <c r="B1192">
+        <v>1.25</v>
+      </c>
+      <c r="C1192">
+        <v>30</v>
+      </c>
+      <c r="D1192">
+        <v>2.4833189999999998</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1193">
+        <v>24.5</v>
+      </c>
+      <c r="B1193">
+        <v>1.25</v>
+      </c>
+      <c r="C1193">
+        <v>45</v>
+      </c>
+      <c r="D1193">
+        <v>4.6365299999999996</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1194">
+        <v>26.5</v>
+      </c>
+      <c r="B1194">
+        <v>1.25</v>
+      </c>
+      <c r="C1194">
+        <v>0</v>
+      </c>
+      <c r="D1194">
+        <v>2.3541069999999999</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1195">
+        <v>26.5</v>
+      </c>
+      <c r="B1195">
+        <v>1.25</v>
+      </c>
+      <c r="C1195">
+        <v>15</v>
+      </c>
+      <c r="D1195">
+        <v>2.4409480000000001</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1196">
+        <v>26.5</v>
+      </c>
+      <c r="B1196">
+        <v>1.25</v>
+      </c>
+      <c r="C1196">
+        <v>30</v>
+      </c>
+      <c r="D1196">
+        <v>2.5513319999999999</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1197">
+        <v>26.5</v>
+      </c>
+      <c r="B1197">
+        <v>1.25</v>
+      </c>
+      <c r="C1197">
+        <v>45</v>
+      </c>
+      <c r="D1197">
+        <v>4.6640439999999996</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1198">
+        <v>28.5</v>
+      </c>
+      <c r="B1198">
+        <v>1.25</v>
+      </c>
+      <c r="C1198">
+        <v>0</v>
+      </c>
+      <c r="D1198">
+        <v>2.4320930000000001</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1199">
+        <v>28.5</v>
+      </c>
+      <c r="B1199">
+        <v>1.25</v>
+      </c>
+      <c r="C1199">
+        <v>15</v>
+      </c>
+      <c r="D1199">
+        <v>2.6300789999999998</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1200">
+        <v>28.5</v>
+      </c>
+      <c r="B1200">
+        <v>1.25</v>
+      </c>
+      <c r="C1200">
+        <v>30</v>
+      </c>
+      <c r="D1200">
+        <v>2.909592</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1201">
+        <v>28.5</v>
+      </c>
+      <c r="B1201">
+        <v>1.25</v>
+      </c>
+      <c r="C1201">
+        <v>45</v>
+      </c>
+      <c r="D1201">
+        <v>4.7191879999999999</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1202">
+        <v>30.5</v>
+      </c>
+      <c r="B1202">
+        <v>1.25</v>
+      </c>
+      <c r="C1202">
+        <v>0</v>
+      </c>
+      <c r="D1202">
+        <v>2.7467250000000001</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1203">
+        <v>30.5</v>
+      </c>
+      <c r="B1203">
+        <v>1.25</v>
+      </c>
+      <c r="C1203">
+        <v>15</v>
+      </c>
+      <c r="D1203">
+        <v>2.9441799999999998</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1204">
+        <v>30.5</v>
+      </c>
+      <c r="B1204">
+        <v>1.25</v>
+      </c>
+      <c r="C1204">
+        <v>30</v>
+      </c>
+      <c r="D1204">
+        <v>3.1353240000000002</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1205">
+        <v>30.5</v>
+      </c>
+      <c r="B1205">
+        <v>1.25</v>
+      </c>
+      <c r="C1205">
+        <v>45</v>
+      </c>
+      <c r="D1205">
+        <v>4.8088640000000007</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1206">
+        <v>32.5</v>
+      </c>
+      <c r="B1206">
+        <v>1.25</v>
+      </c>
+      <c r="C1206">
+        <v>0</v>
+      </c>
+      <c r="D1206">
+        <v>2.942329</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1207">
+        <v>32.5</v>
+      </c>
+      <c r="B1207">
+        <v>1.25</v>
+      </c>
+      <c r="C1207">
+        <v>15</v>
+      </c>
+      <c r="D1207">
+        <v>3.0882670000000001</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1208">
+        <v>32.5</v>
+      </c>
+      <c r="B1208">
+        <v>1.25</v>
+      </c>
+      <c r="C1208">
+        <v>30</v>
+      </c>
+      <c r="D1208">
+        <v>3.2689349999999999</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1209">
+        <v>32.5</v>
+      </c>
+      <c r="B1209">
+        <v>1.25</v>
+      </c>
+      <c r="C1209">
+        <v>45</v>
+      </c>
+      <c r="D1209">
+        <v>4.8911309999999997</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1210">
+        <v>34.5</v>
+      </c>
+      <c r="B1210">
+        <v>1.25</v>
+      </c>
+      <c r="C1210">
+        <v>0</v>
+      </c>
+      <c r="D1210">
+        <v>3.1093869999999999</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1211">
+        <v>34.5</v>
+      </c>
+      <c r="B1211">
+        <v>1.25</v>
+      </c>
+      <c r="C1211">
+        <v>15</v>
+      </c>
+      <c r="D1211">
+        <v>3.3106080000000002</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1212">
+        <v>34.5</v>
+      </c>
+      <c r="B1212">
+        <v>1.25</v>
+      </c>
+      <c r="C1212">
+        <v>30</v>
+      </c>
+      <c r="D1212">
+        <v>3.645877</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1213">
+        <v>34.5</v>
+      </c>
+      <c r="B1213">
+        <v>1.25</v>
+      </c>
+      <c r="C1213">
+        <v>45</v>
+      </c>
+      <c r="D1213">
+        <v>4.8784590000000003</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1214">
+        <v>35</v>
+      </c>
+      <c r="B1214">
+        <v>1.25</v>
+      </c>
+      <c r="C1214">
+        <v>0</v>
+      </c>
+      <c r="D1214">
+        <v>3.1126339999999999</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1215">
+        <v>35</v>
+      </c>
+      <c r="B1215">
+        <v>1.25</v>
+      </c>
+      <c r="C1215">
+        <v>15</v>
+      </c>
+      <c r="D1215">
+        <v>3.2940719999999999</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1216">
+        <v>35</v>
+      </c>
+      <c r="B1216">
+        <v>1.25</v>
+      </c>
+      <c r="C1216">
+        <v>30</v>
+      </c>
+      <c r="D1216">
+        <v>3.628209</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1217">
+        <v>35</v>
+      </c>
+      <c r="B1217">
+        <v>1.25</v>
+      </c>
+      <c r="C1217">
+        <v>45</v>
+      </c>
+      <c r="D1217">
+        <v>4.8714680000000001</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1218">
+        <v>0.5</v>
+      </c>
+      <c r="B1218">
+        <v>1.5</v>
+      </c>
+      <c r="C1218">
+        <v>0</v>
+      </c>
+      <c r="D1218">
+        <v>2.6790150000000001</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1219">
+        <v>0.5</v>
+      </c>
+      <c r="B1219">
+        <v>1.5</v>
+      </c>
+      <c r="C1219">
+        <v>15</v>
+      </c>
+      <c r="D1219">
+        <v>2.8114170000000001</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1220">
+        <v>0.5</v>
+      </c>
+      <c r="B1220">
+        <v>1.5</v>
+      </c>
+      <c r="C1220">
+        <v>30</v>
+      </c>
+      <c r="D1220">
+        <v>3.3040889999999998</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1221">
+        <v>0.5</v>
+      </c>
+      <c r="B1221">
+        <v>1.5</v>
+      </c>
+      <c r="C1221">
+        <v>45</v>
+      </c>
+      <c r="D1221">
+        <v>4.3662919999999996</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1222">
+        <v>2.5</v>
+      </c>
+      <c r="B1222">
+        <v>1.5</v>
+      </c>
+      <c r="C1222">
+        <v>0</v>
+      </c>
+      <c r="D1222">
+        <v>2.036883</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1223">
+        <v>2.5</v>
+      </c>
+      <c r="B1223">
+        <v>1.5</v>
+      </c>
+      <c r="C1223">
+        <v>15</v>
+      </c>
+      <c r="D1223">
+        <v>2.1451210000000001</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1224">
+        <v>2.5</v>
+      </c>
+      <c r="B1224">
+        <v>1.5</v>
+      </c>
+      <c r="C1224">
+        <v>30</v>
+      </c>
+      <c r="D1224">
+        <v>2.5404550000000001</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1225">
+        <v>2.5</v>
+      </c>
+      <c r="B1225">
+        <v>1.5</v>
+      </c>
+      <c r="C1225">
+        <v>45</v>
+      </c>
+      <c r="D1225">
+        <v>3.3838550000000001</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1226">
+        <v>4.5</v>
+      </c>
+      <c r="B1226">
+        <v>1.5</v>
+      </c>
+      <c r="C1226">
+        <v>0</v>
+      </c>
+      <c r="D1226">
+        <v>2.0469360000000001</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1227">
+        <v>4.5</v>
+      </c>
+      <c r="B1227">
+        <v>1.5</v>
+      </c>
+      <c r="C1227">
+        <v>15</v>
+      </c>
+      <c r="D1227">
+        <v>2.2531189999999999</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1228">
+        <v>4.5</v>
+      </c>
+      <c r="B1228">
+        <v>1.5</v>
+      </c>
+      <c r="C1228">
+        <v>30</v>
+      </c>
+      <c r="D1228">
+        <v>2.5504340000000001</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1229">
+        <v>4.5</v>
+      </c>
+      <c r="B1229">
+        <v>1.5</v>
+      </c>
+      <c r="C1229">
+        <v>45</v>
+      </c>
+      <c r="D1229">
+        <v>3.2056809999999998</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1230">
+        <v>6.5</v>
+      </c>
+      <c r="B1230">
+        <v>1.5</v>
+      </c>
+      <c r="C1230">
+        <v>0</v>
+      </c>
+      <c r="D1230">
+        <v>1.952426</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1231">
+        <v>6.5</v>
+      </c>
+      <c r="B1231">
+        <v>1.5</v>
+      </c>
+      <c r="C1231">
+        <v>15</v>
+      </c>
+      <c r="D1231">
+        <v>2.197308</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1232">
+        <v>6.5</v>
+      </c>
+      <c r="B1232">
+        <v>1.5</v>
+      </c>
+      <c r="C1232">
+        <v>30</v>
+      </c>
+      <c r="D1232">
+        <v>2.4544169999999998</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1233">
+        <v>6.5</v>
+      </c>
+      <c r="B1233">
+        <v>1.5</v>
+      </c>
+      <c r="C1233">
+        <v>45</v>
+      </c>
+      <c r="D1233">
+        <v>3.0814349999999999</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1234">
+        <v>8.5</v>
+      </c>
+      <c r="B1234">
+        <v>1.5</v>
+      </c>
+      <c r="C1234">
+        <v>0</v>
+      </c>
+      <c r="D1234">
+        <v>1.860684</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1235">
+        <v>8.5</v>
+      </c>
+      <c r="B1235">
+        <v>1.5</v>
+      </c>
+      <c r="C1235">
+        <v>15</v>
+      </c>
+      <c r="D1235">
+        <v>2.1201989999999999</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1236">
+        <v>8.5</v>
+      </c>
+      <c r="B1236">
+        <v>1.5</v>
+      </c>
+      <c r="C1236">
+        <v>30</v>
+      </c>
+      <c r="D1236">
+        <v>2.3574359999999999</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1237">
+        <v>8.5</v>
+      </c>
+      <c r="B1237">
+        <v>1.5</v>
+      </c>
+      <c r="C1237">
+        <v>45</v>
+      </c>
+      <c r="D1237">
+        <v>2.9876100000000001</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1238">
+        <v>10.5</v>
+      </c>
+      <c r="B1238">
+        <v>1.5</v>
+      </c>
+      <c r="C1238">
+        <v>0</v>
+      </c>
+      <c r="D1238">
+        <v>1.9421489999999999</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1239">
+        <v>10.5</v>
+      </c>
+      <c r="B1239">
+        <v>1.5</v>
+      </c>
+      <c r="C1239">
+        <v>15</v>
+      </c>
+      <c r="D1239">
+        <v>2.1924809999999999</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1240">
+        <v>10.5</v>
+      </c>
+      <c r="B1240">
+        <v>1.5</v>
+      </c>
+      <c r="C1240">
+        <v>30</v>
+      </c>
+      <c r="D1240">
+        <v>2.4357890000000002</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1241">
+        <v>10.5</v>
+      </c>
+      <c r="B1241">
+        <v>1.5</v>
+      </c>
+      <c r="C1241">
+        <v>45</v>
+      </c>
+      <c r="D1241">
+        <v>2.9022480000000002</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1242">
+        <v>12.5</v>
+      </c>
+      <c r="B1242">
+        <v>1.5</v>
+      </c>
+      <c r="C1242">
+        <v>0</v>
+      </c>
+      <c r="D1242">
+        <v>2.0011269999999999</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1243">
+        <v>12.5</v>
+      </c>
+      <c r="B1243">
+        <v>1.5</v>
+      </c>
+      <c r="C1243">
+        <v>15</v>
+      </c>
+      <c r="D1243">
+        <v>2.2187960000000002</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1244">
+        <v>12.5</v>
+      </c>
+      <c r="B1244">
+        <v>1.5</v>
+      </c>
+      <c r="C1244">
+        <v>30</v>
+      </c>
+      <c r="D1244">
+        <v>2.5258099999999999</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1245">
+        <v>12.5</v>
+      </c>
+      <c r="B1245">
+        <v>1.5</v>
+      </c>
+      <c r="C1245">
+        <v>45</v>
+      </c>
+      <c r="D1245">
+        <v>3.026554</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1246">
+        <v>14.5</v>
+      </c>
+      <c r="B1246">
+        <v>1.5</v>
+      </c>
+      <c r="C1246">
+        <v>0</v>
+      </c>
+      <c r="D1246">
+        <v>2.0453869999999998</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1247">
+        <v>14.5</v>
+      </c>
+      <c r="B1247">
+        <v>1.5</v>
+      </c>
+      <c r="C1247">
+        <v>15</v>
+      </c>
+      <c r="D1247">
+        <v>2.2430439999999998</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1248">
+        <v>14.5</v>
+      </c>
+      <c r="B1248">
+        <v>1.5</v>
+      </c>
+      <c r="C1248">
+        <v>30</v>
+      </c>
+      <c r="D1248">
+        <v>2.559841</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1249">
+        <v>14.5</v>
+      </c>
+      <c r="B1249">
+        <v>1.5</v>
+      </c>
+      <c r="C1249">
+        <v>45</v>
+      </c>
+      <c r="D1249">
+        <v>3.1176460000000001</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1250">
+        <v>16.5</v>
+      </c>
+      <c r="B1250">
+        <v>1.5</v>
+      </c>
+      <c r="C1250">
+        <v>0</v>
+      </c>
+      <c r="D1250">
+        <v>2.0885929999999999</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1251">
+        <v>16.5</v>
+      </c>
+      <c r="B1251">
+        <v>1.5</v>
+      </c>
+      <c r="C1251">
+        <v>15</v>
+      </c>
+      <c r="D1251">
+        <v>2.2901530000000001</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1252">
+        <v>16.5</v>
+      </c>
+      <c r="B1252">
+        <v>1.5</v>
+      </c>
+      <c r="C1252">
+        <v>30</v>
+      </c>
+      <c r="D1252">
+        <v>2.5813429999999999</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1253">
+        <v>16.5</v>
+      </c>
+      <c r="B1253">
+        <v>1.5</v>
+      </c>
+      <c r="C1253">
+        <v>45</v>
+      </c>
+      <c r="D1253">
+        <v>3.1790750000000001</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1254">
+        <v>18.5</v>
+      </c>
+      <c r="B1254">
+        <v>1.5</v>
+      </c>
+      <c r="C1254">
+        <v>0</v>
+      </c>
+      <c r="D1254">
+        <v>2.1555749999999998</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1255">
+        <v>18.5</v>
+      </c>
+      <c r="B1255">
+        <v>1.5</v>
+      </c>
+      <c r="C1255">
+        <v>15</v>
+      </c>
+      <c r="D1255">
+        <v>2.3381370000000001</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1256">
+        <v>18.5</v>
+      </c>
+      <c r="B1256">
+        <v>1.5</v>
+      </c>
+      <c r="C1256">
+        <v>30</v>
+      </c>
+      <c r="D1256">
+        <v>2.601315</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1257">
+        <v>18.5</v>
+      </c>
+      <c r="B1257">
+        <v>1.5</v>
+      </c>
+      <c r="C1257">
+        <v>45</v>
+      </c>
+      <c r="D1257">
+        <v>3.265266</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1258">
+        <v>20.5</v>
+      </c>
+      <c r="B1258">
+        <v>1.5</v>
+      </c>
+      <c r="C1258">
+        <v>0</v>
+      </c>
+      <c r="D1258">
+        <v>2.207131</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1259">
+        <v>20.5</v>
+      </c>
+      <c r="B1259">
+        <v>1.5</v>
+      </c>
+      <c r="C1259">
+        <v>15</v>
+      </c>
+      <c r="D1259">
+        <v>2.375877</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1260">
+        <v>20.5</v>
+      </c>
+      <c r="B1260">
+        <v>1.5</v>
+      </c>
+      <c r="C1260">
+        <v>30</v>
+      </c>
+      <c r="D1260">
+        <v>2.6284540000000001</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1261">
+        <v>20.5</v>
+      </c>
+      <c r="B1261">
+        <v>1.5</v>
+      </c>
+      <c r="C1261">
+        <v>45</v>
+      </c>
+      <c r="D1261">
+        <v>3.2100629999999999</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1262">
+        <v>22.5</v>
+      </c>
+      <c r="B1262">
+        <v>1.5</v>
+      </c>
+      <c r="C1262">
+        <v>0</v>
+      </c>
+      <c r="D1262">
+        <v>2.257771</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1263">
+        <v>22.5</v>
+      </c>
+      <c r="B1263">
+        <v>1.5</v>
+      </c>
+      <c r="C1263">
+        <v>15</v>
+      </c>
+      <c r="D1263">
+        <v>2.4222199999999998</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1264">
+        <v>22.5</v>
+      </c>
+      <c r="B1264">
+        <v>1.5</v>
+      </c>
+      <c r="C1264">
+        <v>30</v>
+      </c>
+      <c r="D1264">
+        <v>2.663001</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1265">
+        <v>22.5</v>
+      </c>
+      <c r="B1265">
+        <v>1.5</v>
+      </c>
+      <c r="C1265">
+        <v>45</v>
+      </c>
+      <c r="D1265">
+        <v>3.2039279999999999</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1266">
+        <v>24.5</v>
+      </c>
+      <c r="B1266">
+        <v>1.5</v>
+      </c>
+      <c r="C1266">
+        <v>0</v>
+      </c>
+      <c r="D1266">
+        <v>2.322533</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1267">
+        <v>24.5</v>
+      </c>
+      <c r="B1267">
+        <v>1.5</v>
+      </c>
+      <c r="C1267">
+        <v>15</v>
+      </c>
+      <c r="D1267">
+        <v>2.4692889999999998</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1268">
+        <v>24.5</v>
+      </c>
+      <c r="B1268">
+        <v>1.5</v>
+      </c>
+      <c r="C1268">
+        <v>30</v>
+      </c>
+      <c r="D1268">
+        <v>2.6952769999999999</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1269">
+        <v>24.5</v>
+      </c>
+      <c r="B1269">
+        <v>1.5</v>
+      </c>
+      <c r="C1269">
+        <v>45</v>
+      </c>
+      <c r="D1269">
+        <v>3.1943600000000001</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1270">
+        <v>26.5</v>
+      </c>
+      <c r="B1270">
+        <v>1.5</v>
+      </c>
+      <c r="C1270">
+        <v>0</v>
+      </c>
+      <c r="D1270">
+        <v>2.3708939999999998</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1271">
+        <v>26.5</v>
+      </c>
+      <c r="B1271">
+        <v>1.5</v>
+      </c>
+      <c r="C1271">
+        <v>15</v>
+      </c>
+      <c r="D1271">
+        <v>2.5128349999999999</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1272">
+        <v>26.5</v>
+      </c>
+      <c r="B1272">
+        <v>1.5</v>
+      </c>
+      <c r="C1272">
+        <v>30</v>
+      </c>
+      <c r="D1272">
+        <v>2.7224689999999998</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1273">
+        <v>26.5</v>
+      </c>
+      <c r="B1273">
+        <v>1.5</v>
+      </c>
+      <c r="C1273">
+        <v>45</v>
+      </c>
+      <c r="D1273">
+        <v>3.1879870000000001</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1274">
+        <v>28.5</v>
+      </c>
+      <c r="B1274">
+        <v>1.5</v>
+      </c>
+      <c r="C1274">
+        <v>0</v>
+      </c>
+      <c r="D1274">
+        <v>2.414952</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1275">
+        <v>28.5</v>
+      </c>
+      <c r="B1275">
+        <v>1.5</v>
+      </c>
+      <c r="C1275">
+        <v>15</v>
+      </c>
+      <c r="D1275">
+        <v>2.5480770000000001</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1276">
+        <v>28.5</v>
+      </c>
+      <c r="B1276">
+        <v>1.5</v>
+      </c>
+      <c r="C1276">
+        <v>30</v>
+      </c>
+      <c r="D1276">
+        <v>2.7505470000000001</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1277">
+        <v>28.5</v>
+      </c>
+      <c r="B1277">
+        <v>1.5</v>
+      </c>
+      <c r="C1277">
+        <v>45</v>
+      </c>
+      <c r="D1277">
+        <v>3.1965949999999999</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1278">
+        <v>30.5</v>
+      </c>
+      <c r="B1278">
+        <v>1.5</v>
+      </c>
+      <c r="C1278">
+        <v>0</v>
+      </c>
+      <c r="D1278">
+        <v>2.462914</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1279">
+        <v>30.5</v>
+      </c>
+      <c r="B1279">
+        <v>1.5</v>
+      </c>
+      <c r="C1279">
+        <v>15</v>
+      </c>
+      <c r="D1279">
+        <v>2.5947550000000001</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1280">
+        <v>30.5</v>
+      </c>
+      <c r="B1280">
+        <v>1.5</v>
+      </c>
+      <c r="C1280">
+        <v>30</v>
+      </c>
+      <c r="D1280">
+        <v>2.7850860000000002</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1281">
+        <v>30.5</v>
+      </c>
+      <c r="B1281">
+        <v>1.5</v>
+      </c>
+      <c r="C1281">
+        <v>45</v>
+      </c>
+      <c r="D1281">
+        <v>3.1914180000000001</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1282">
+        <v>32.5</v>
+      </c>
+      <c r="B1282">
+        <v>1.5</v>
+      </c>
+      <c r="C1282">
+        <v>0</v>
+      </c>
+      <c r="D1282">
+        <v>2.5106600000000001</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1283">
+        <v>32.5</v>
+      </c>
+      <c r="B1283">
+        <v>1.5</v>
+      </c>
+      <c r="C1283">
+        <v>15</v>
+      </c>
+      <c r="D1283">
+        <v>2.6387230000000002</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1284">
+        <v>32.5</v>
+      </c>
+      <c r="B1284">
+        <v>1.5</v>
+      </c>
+      <c r="C1284">
+        <v>30</v>
+      </c>
+      <c r="D1284">
+        <v>2.816897</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1285">
+        <v>32.5</v>
+      </c>
+      <c r="B1285">
+        <v>1.5</v>
+      </c>
+      <c r="C1285">
+        <v>45</v>
+      </c>
+      <c r="D1285">
+        <v>3.213333</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1286">
+        <v>34.5</v>
+      </c>
+      <c r="B1286">
+        <v>1.5</v>
+      </c>
+      <c r="C1286">
+        <v>0</v>
+      </c>
+      <c r="D1286">
+        <v>2.5573630000000001</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1287">
+        <v>34.5</v>
+      </c>
+      <c r="B1287">
+        <v>1.5</v>
+      </c>
+      <c r="C1287">
+        <v>15</v>
+      </c>
+      <c r="D1287">
+        <v>2.6760709999999999</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1288">
+        <v>34.5</v>
+      </c>
+      <c r="B1288">
+        <v>1.5</v>
+      </c>
+      <c r="C1288">
+        <v>30</v>
+      </c>
+      <c r="D1288">
+        <v>2.8462809999999998</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1289">
+        <v>34.5</v>
+      </c>
+      <c r="B1289">
+        <v>1.5</v>
+      </c>
+      <c r="C1289">
+        <v>45</v>
+      </c>
+      <c r="D1289">
+        <v>3.222451</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1290">
+        <v>35</v>
+      </c>
+      <c r="B1290">
+        <v>1.5</v>
+      </c>
+      <c r="C1290">
+        <v>0</v>
+      </c>
+      <c r="D1290">
+        <v>2.5670099999999998</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1291">
+        <v>35</v>
+      </c>
+      <c r="B1291">
+        <v>1.5</v>
+      </c>
+      <c r="C1291">
+        <v>15</v>
+      </c>
+      <c r="D1291">
+        <v>2.6859389999999999</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1292">
+        <v>35</v>
+      </c>
+      <c r="B1292">
+        <v>1.5</v>
+      </c>
+      <c r="C1292">
+        <v>30</v>
+      </c>
+      <c r="D1292">
+        <v>2.8551030000000002</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1293">
+        <v>35</v>
+      </c>
+      <c r="B1293">
+        <v>1.5</v>
+      </c>
+      <c r="C1293">
+        <v>45</v>
+      </c>
+      <c r="D1293">
+        <v>3.22357</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1294">
+        <v>0.5</v>
+      </c>
+      <c r="B1294">
+        <v>1.75</v>
+      </c>
+      <c r="C1294">
+        <v>0</v>
+      </c>
+      <c r="D1294">
+        <v>3.3494679999999999</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1295">
+        <v>0.5</v>
+      </c>
+      <c r="B1295">
+        <v>1.75</v>
+      </c>
+      <c r="C1295">
+        <v>15</v>
+      </c>
+      <c r="D1295">
+        <v>3.5205570000000002</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1296">
+        <v>0.5</v>
+      </c>
+      <c r="B1296">
+        <v>1.75</v>
+      </c>
+      <c r="C1296">
+        <v>30</v>
+      </c>
+      <c r="D1296">
+        <v>4.1024019999999997</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1297">
+        <v>0.5</v>
+      </c>
+      <c r="B1297">
+        <v>1.75</v>
+      </c>
+      <c r="C1297">
+        <v>45</v>
+      </c>
+      <c r="D1297">
+        <v>5.3432810000000002</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1298">
+        <v>2.5</v>
+      </c>
+      <c r="B1298">
+        <v>1.75</v>
+      </c>
+      <c r="C1298">
+        <v>0</v>
+      </c>
+      <c r="D1298">
+        <v>2.62113</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1299">
+        <v>2.5</v>
+      </c>
+      <c r="B1299">
+        <v>1.75</v>
+      </c>
+      <c r="C1299">
+        <v>15</v>
+      </c>
+      <c r="D1299">
+        <v>2.8223479999999999</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1300">
+        <v>2.5</v>
+      </c>
+      <c r="B1300">
+        <v>1.75</v>
+      </c>
+      <c r="C1300">
+        <v>30</v>
+      </c>
+      <c r="D1300">
+        <v>3.2819099999999999</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1301">
+        <v>2.5</v>
+      </c>
+      <c r="B1301">
+        <v>1.75</v>
+      </c>
+      <c r="C1301">
+        <v>45</v>
+      </c>
+      <c r="D1301">
+        <v>4.3407790000000004</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1302">
+        <v>4.5</v>
+      </c>
+      <c r="B1302">
+        <v>1.75</v>
+      </c>
+      <c r="C1302">
+        <v>0</v>
+      </c>
+      <c r="D1302">
+        <v>2.2741630000000002</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1303">
+        <v>4.5</v>
+      </c>
+      <c r="B1303">
+        <v>1.75</v>
+      </c>
+      <c r="C1303">
+        <v>15</v>
+      </c>
+      <c r="D1303">
+        <v>2.4661420000000001</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1304">
+        <v>4.5</v>
+      </c>
+      <c r="B1304">
+        <v>1.75</v>
+      </c>
+      <c r="C1304">
+        <v>30</v>
+      </c>
+      <c r="D1304">
+        <v>2.8886639999999999</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1305">
+        <v>4.5</v>
+      </c>
+      <c r="B1305">
+        <v>1.75</v>
+      </c>
+      <c r="C1305">
+        <v>45</v>
+      </c>
+      <c r="D1305">
+        <v>3.8240029999999998</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1306">
+        <v>6.5</v>
+      </c>
+      <c r="B1306">
+        <v>1.75</v>
+      </c>
+      <c r="C1306">
+        <v>0</v>
+      </c>
+      <c r="D1306">
+        <v>2.3405309999999999</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1307">
+        <v>6.5</v>
+      </c>
+      <c r="B1307">
+        <v>1.75</v>
+      </c>
+      <c r="C1307">
+        <v>15</v>
+      </c>
+      <c r="D1307">
+        <v>2.6371509999999998</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1308">
+        <v>6.5</v>
+      </c>
+      <c r="B1308">
+        <v>1.75</v>
+      </c>
+      <c r="C1308">
+        <v>30</v>
+      </c>
+      <c r="D1308">
+        <v>2.9724270000000002</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1309">
+        <v>6.5</v>
+      </c>
+      <c r="B1309">
+        <v>1.75</v>
+      </c>
+      <c r="C1309">
+        <v>45</v>
+      </c>
+      <c r="D1309">
+        <v>3.7191190000000001</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1310">
+        <v>8.5</v>
+      </c>
+      <c r="B1310">
+        <v>1.75</v>
+      </c>
+      <c r="C1310">
+        <v>0</v>
+      </c>
+      <c r="D1310">
+        <v>2.262826</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1311">
+        <v>8.5</v>
+      </c>
+      <c r="B1311">
+        <v>1.75</v>
+      </c>
+      <c r="C1311">
+        <v>15</v>
+      </c>
+      <c r="D1311">
+        <v>2.5655199999999998</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1312">
+        <v>8.5</v>
+      </c>
+      <c r="B1312">
+        <v>1.75</v>
+      </c>
+      <c r="C1312">
+        <v>30</v>
+      </c>
+      <c r="D1312">
+        <v>2.895267</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1313">
+        <v>8.5</v>
+      </c>
+      <c r="B1313">
+        <v>1.75</v>
+      </c>
+      <c r="C1313">
+        <v>45</v>
+      </c>
+      <c r="D1313">
+        <v>3.6485660000000002</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1314">
+        <v>10.5</v>
+      </c>
+      <c r="B1314">
+        <v>1.75</v>
+      </c>
+      <c r="C1314">
+        <v>0</v>
+      </c>
+      <c r="D1314">
+        <v>2.2136879999999999</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1315">
+        <v>10.5</v>
+      </c>
+      <c r="B1315">
+        <v>1.75</v>
+      </c>
+      <c r="C1315">
+        <v>15</v>
+      </c>
+      <c r="D1315">
+        <v>2.5258729999999998</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1316">
+        <v>10.5</v>
+      </c>
+      <c r="B1316">
+        <v>1.75</v>
+      </c>
+      <c r="C1316">
+        <v>30</v>
+      </c>
+      <c r="D1316">
+        <v>2.8446669999999998</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1317">
+        <v>10.5</v>
+      </c>
+      <c r="B1317">
+        <v>1.75</v>
+      </c>
+      <c r="C1317">
+        <v>45</v>
+      </c>
+      <c r="D1317">
+        <v>3.5610210000000002</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1318">
+        <v>12.5</v>
+      </c>
+      <c r="B1318">
+        <v>1.75</v>
+      </c>
+      <c r="C1318">
+        <v>0</v>
+      </c>
+      <c r="D1318">
+        <v>2.1558999999999999</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1319">
+        <v>12.5</v>
+      </c>
+      <c r="B1319">
+        <v>1.75</v>
+      </c>
+      <c r="C1319">
+        <v>15</v>
+      </c>
+      <c r="D1319">
+        <v>2.4307219999999998</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1320">
+        <v>12.5</v>
+      </c>
+      <c r="B1320">
+        <v>1.75</v>
+      </c>
+      <c r="C1320">
+        <v>30</v>
+      </c>
+      <c r="D1320">
+        <v>2.771433</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1321">
+        <v>12.5</v>
+      </c>
+      <c r="B1321">
+        <v>1.75</v>
+      </c>
+      <c r="C1321">
+        <v>45</v>
+      </c>
+      <c r="D1321">
+        <v>3.5393560000000002</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1322">
+        <v>14.5</v>
+      </c>
+      <c r="B1322">
+        <v>1.75</v>
+      </c>
+      <c r="C1322">
+        <v>0</v>
+      </c>
+      <c r="D1322">
+        <v>2.1120040000000002</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1323">
+        <v>14.5</v>
+      </c>
+      <c r="B1323">
+        <v>1.75</v>
+      </c>
+      <c r="C1323">
+        <v>15</v>
+      </c>
+      <c r="D1323">
+        <v>2.4202840000000001</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1324">
+        <v>14.5</v>
+      </c>
+      <c r="B1324">
+        <v>1.75</v>
+      </c>
+      <c r="C1324">
+        <v>30</v>
+      </c>
+      <c r="D1324">
+        <v>2.7228699999999999</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1325">
+        <v>14.5</v>
+      </c>
+      <c r="B1325">
+        <v>1.75</v>
+      </c>
+      <c r="C1325">
+        <v>45</v>
+      </c>
+      <c r="D1325">
+        <v>3.4170669999999999</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1326">
+        <v>16.5</v>
+      </c>
+      <c r="B1326">
+        <v>1.75</v>
+      </c>
+      <c r="C1326">
+        <v>0</v>
+      </c>
+      <c r="D1326">
+        <v>2.177095</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1327">
+        <v>16.5</v>
+      </c>
+      <c r="B1327">
+        <v>1.75</v>
+      </c>
+      <c r="C1327">
+        <v>15</v>
+      </c>
+      <c r="D1327">
+        <v>2.4499360000000001</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1328">
+        <v>16.5</v>
+      </c>
+      <c r="B1328">
+        <v>1.75</v>
+      </c>
+      <c r="C1328">
+        <v>30</v>
+      </c>
+      <c r="D1328">
+        <v>2.7995610000000002</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1329">
+        <v>16.5</v>
+      </c>
+      <c r="B1329">
+        <v>1.75</v>
+      </c>
+      <c r="C1329">
+        <v>45</v>
+      </c>
+      <c r="D1329">
+        <v>3.349882</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1330">
+        <v>18.5</v>
+      </c>
+      <c r="B1330">
+        <v>1.75</v>
+      </c>
+      <c r="C1330">
+        <v>0</v>
+      </c>
+      <c r="D1330">
+        <v>2.2258110000000002</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1331">
+        <v>18.5</v>
+      </c>
+      <c r="B1331">
+        <v>1.75</v>
+      </c>
+      <c r="C1331">
+        <v>15</v>
+      </c>
+      <c r="D1331">
+        <v>2.471123</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1332">
+        <v>18.5</v>
+      </c>
+      <c r="B1332">
+        <v>1.75</v>
+      </c>
+      <c r="C1332">
+        <v>30</v>
+      </c>
+      <c r="D1332">
+        <v>2.8573550000000001</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1333">
+        <v>18.5</v>
+      </c>
+      <c r="B1333">
+        <v>1.75</v>
+      </c>
+      <c r="C1333">
+        <v>45</v>
+      </c>
+      <c r="D1333">
+        <v>3.4329230000000002</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1334">
+        <v>20.5</v>
+      </c>
+      <c r="B1334">
+        <v>1.75</v>
+      </c>
+      <c r="C1334">
+        <v>0</v>
+      </c>
+      <c r="D1334">
+        <v>2.267306</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1335">
+        <v>20.5</v>
+      </c>
+      <c r="B1335">
+        <v>1.75</v>
+      </c>
+      <c r="C1335">
+        <v>15</v>
+      </c>
+      <c r="D1335">
+        <v>2.4997720000000001</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1336">
+        <v>20.5</v>
+      </c>
+      <c r="B1336">
+        <v>1.75</v>
+      </c>
+      <c r="C1336">
+        <v>30</v>
+      </c>
+      <c r="D1336">
+        <v>2.8988390000000002</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1337">
+        <v>20.5</v>
+      </c>
+      <c r="B1337">
+        <v>1.75</v>
+      </c>
+      <c r="C1337">
+        <v>45</v>
+      </c>
+      <c r="D1337">
+        <v>3.5081669999999998</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1338">
+        <v>22.5</v>
+      </c>
+      <c r="B1338">
+        <v>1.75</v>
+      </c>
+      <c r="C1338">
+        <v>0</v>
+      </c>
+      <c r="D1338">
+        <v>2.2966500000000001</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1339">
+        <v>22.5</v>
+      </c>
+      <c r="B1339">
+        <v>1.75</v>
+      </c>
+      <c r="C1339">
+        <v>15</v>
+      </c>
+      <c r="D1339">
+        <v>2.5366780000000002</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1340">
+        <v>22.5</v>
+      </c>
+      <c r="B1340">
+        <v>1.75</v>
+      </c>
+      <c r="C1340">
+        <v>30</v>
+      </c>
+      <c r="D1340">
+        <v>2.9054190000000002</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1341">
+        <v>22.5</v>
+      </c>
+      <c r="B1341">
+        <v>1.75</v>
+      </c>
+      <c r="C1341">
+        <v>45</v>
+      </c>
+      <c r="D1341">
+        <v>3.632355</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1342">
+        <v>24.5</v>
+      </c>
+      <c r="B1342">
+        <v>1.75</v>
+      </c>
+      <c r="C1342">
+        <v>0</v>
+      </c>
+      <c r="D1342">
+        <v>2.3244630000000002</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1343">
+        <v>24.5</v>
+      </c>
+      <c r="B1343">
+        <v>1.75</v>
+      </c>
+      <c r="C1343">
+        <v>15</v>
+      </c>
+      <c r="D1343">
+        <v>2.5656439999999998</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1344">
+        <v>24.5</v>
+      </c>
+      <c r="B1344">
+        <v>1.75</v>
+      </c>
+      <c r="C1344">
+        <v>30</v>
+      </c>
+      <c r="D1344">
+        <v>2.9129390000000002</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1345">
+        <v>24.5</v>
+      </c>
+      <c r="B1345">
+        <v>1.75</v>
+      </c>
+      <c r="C1345">
+        <v>45</v>
+      </c>
+      <c r="D1345">
+        <v>3.637982</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1346">
+        <v>26.5</v>
+      </c>
+      <c r="B1346">
+        <v>1.75</v>
+      </c>
+      <c r="C1346">
+        <v>0</v>
+      </c>
+      <c r="D1346">
+        <v>2.3804460000000001</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1347">
+        <v>26.5</v>
+      </c>
+      <c r="B1347">
+        <v>1.75</v>
+      </c>
+      <c r="C1347">
+        <v>15</v>
+      </c>
+      <c r="D1347">
+        <v>2.61097</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1348">
+        <v>26.5</v>
+      </c>
+      <c r="B1348">
+        <v>1.75</v>
+      </c>
+      <c r="C1348">
+        <v>30</v>
+      </c>
+      <c r="D1348">
+        <v>2.9403600000000001</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1349">
+        <v>26.5</v>
+      </c>
+      <c r="B1349">
+        <v>1.75</v>
+      </c>
+      <c r="C1349">
+        <v>45</v>
+      </c>
+      <c r="D1349">
+        <v>3.6662119999999998</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1350">
+        <v>28.5</v>
+      </c>
+      <c r="B1350">
+        <v>1.75</v>
+      </c>
+      <c r="C1350">
+        <v>0</v>
+      </c>
+      <c r="D1350">
+        <v>2.4367909999999999</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1351">
+        <v>28.5</v>
+      </c>
+      <c r="B1351">
+        <v>1.75</v>
+      </c>
+      <c r="C1351">
+        <v>15</v>
+      </c>
+      <c r="D1351">
+        <v>2.6479400000000002</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1352">
+        <v>28.5</v>
+      </c>
+      <c r="B1352">
+        <v>1.75</v>
+      </c>
+      <c r="C1352">
+        <v>30</v>
+      </c>
+      <c r="D1352">
+        <v>2.9648279999999998</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1353">
+        <v>28.5</v>
+      </c>
+      <c r="B1353">
+        <v>1.75</v>
+      </c>
+      <c r="C1353">
+        <v>45</v>
+      </c>
+      <c r="D1353">
+        <v>3.6623990000000002</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1354">
+        <v>30.5</v>
+      </c>
+      <c r="B1354">
+        <v>1.75</v>
+      </c>
+      <c r="C1354">
+        <v>0</v>
+      </c>
+      <c r="D1354">
+        <v>2.4807730000000001</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1355">
+        <v>30.5</v>
+      </c>
+      <c r="B1355">
+        <v>1.75</v>
+      </c>
+      <c r="C1355">
+        <v>15</v>
+      </c>
+      <c r="D1355">
+        <v>2.6827480000000001</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1356">
+        <v>30.5</v>
+      </c>
+      <c r="B1356">
+        <v>1.75</v>
+      </c>
+      <c r="C1356">
+        <v>30</v>
+      </c>
+      <c r="D1356">
+        <v>2.99403</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1357">
+        <v>30.5</v>
+      </c>
+      <c r="B1357">
+        <v>1.75</v>
+      </c>
+      <c r="C1357">
+        <v>45</v>
+      </c>
+      <c r="D1357">
+        <v>3.6539380000000001</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1358">
+        <v>32.5</v>
+      </c>
+      <c r="B1358">
+        <v>1.75</v>
+      </c>
+      <c r="C1358">
+        <v>0</v>
+      </c>
+      <c r="D1358">
+        <v>2.520581</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1359">
+        <v>32.5</v>
+      </c>
+      <c r="B1359">
+        <v>1.75</v>
+      </c>
+      <c r="C1359">
+        <v>15</v>
+      </c>
+      <c r="D1359">
+        <v>2.7068850000000002</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1360">
+        <v>32.5</v>
+      </c>
+      <c r="B1360">
+        <v>1.75</v>
+      </c>
+      <c r="C1360">
+        <v>30</v>
+      </c>
+      <c r="D1360">
+        <v>2.9995310000000002</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1361">
+        <v>32.5</v>
+      </c>
+      <c r="B1361">
+        <v>1.75</v>
+      </c>
+      <c r="C1361">
+        <v>45</v>
+      </c>
+      <c r="D1361">
+        <v>3.6474510000000002</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1362">
+        <v>34.5</v>
+      </c>
+      <c r="B1362">
+        <v>1.75</v>
+      </c>
+      <c r="C1362">
+        <v>0</v>
+      </c>
+      <c r="D1362">
+        <v>2.5574789999999998</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1363">
+        <v>34.5</v>
+      </c>
+      <c r="B1363">
+        <v>1.75</v>
+      </c>
+      <c r="C1363">
+        <v>15</v>
+      </c>
+      <c r="D1363">
+        <v>2.7329150000000002</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1364">
+        <v>34.5</v>
+      </c>
+      <c r="B1364">
+        <v>1.75</v>
+      </c>
+      <c r="C1364">
+        <v>30</v>
+      </c>
+      <c r="D1364">
+        <v>3.0161099999999998</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1365">
+        <v>34.5</v>
+      </c>
+      <c r="B1365">
+        <v>1.75</v>
+      </c>
+      <c r="C1365">
+        <v>45</v>
+      </c>
+      <c r="D1365">
+        <v>3.6426599999999998</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1366">
+        <v>35</v>
+      </c>
+      <c r="B1366">
+        <v>1.75</v>
+      </c>
+      <c r="C1366">
+        <v>0</v>
+      </c>
+      <c r="D1366">
+        <v>2.5632199999999998</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1367">
+        <v>35</v>
+      </c>
+      <c r="B1367">
+        <v>1.75</v>
+      </c>
+      <c r="C1367">
+        <v>15</v>
+      </c>
+      <c r="D1367">
+        <v>2.7391329999999998</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1368">
+        <v>35</v>
+      </c>
+      <c r="B1368">
+        <v>1.75</v>
+      </c>
+      <c r="C1368">
+        <v>30</v>
+      </c>
+      <c r="D1368">
+        <v>3.018227</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1369">
+        <v>35</v>
+      </c>
+      <c r="B1369">
+        <v>1.75</v>
+      </c>
+      <c r="C1369">
+        <v>45</v>
+      </c>
+      <c r="D1369">
+        <v>3.6444350000000001</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1370">
+        <v>0.5</v>
+      </c>
+      <c r="B1370">
+        <v>2</v>
+      </c>
+      <c r="C1370">
+        <v>0</v>
+      </c>
+      <c r="D1370">
+        <v>3.9957539999999998</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1371">
+        <v>0.5</v>
+      </c>
+      <c r="B1371">
+        <v>2</v>
+      </c>
+      <c r="C1371">
+        <v>15</v>
+      </c>
+      <c r="D1371">
+        <v>4.2285550000000001</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1372">
+        <v>0.5</v>
+      </c>
+      <c r="B1372">
+        <v>2</v>
+      </c>
+      <c r="C1372">
+        <v>30</v>
+      </c>
+      <c r="D1372">
+        <v>4.8882780000000006</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1373">
+        <v>0.5</v>
+      </c>
+      <c r="B1373">
+        <v>2</v>
+      </c>
+      <c r="C1373">
+        <v>45</v>
+      </c>
+      <c r="D1373">
+        <v>6.3278460000000001</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1374">
+        <v>2.5</v>
+      </c>
+      <c r="B1374">
+        <v>2</v>
+      </c>
+      <c r="C1374">
+        <v>0</v>
+      </c>
+      <c r="D1374">
+        <v>3.0923539999999998</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1375">
+        <v>2.5</v>
+      </c>
+      <c r="B1375">
+        <v>2</v>
+      </c>
+      <c r="C1375">
+        <v>15</v>
+      </c>
+      <c r="D1375">
+        <v>3.3668300000000002</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1376">
+        <v>2.5</v>
+      </c>
+      <c r="B1376">
+        <v>2</v>
+      </c>
+      <c r="C1376">
+        <v>30</v>
+      </c>
+      <c r="D1376">
+        <v>3.9779249999999999</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1377">
+        <v>2.5</v>
+      </c>
+      <c r="B1377">
+        <v>2</v>
+      </c>
+      <c r="C1377">
+        <v>45</v>
+      </c>
+      <c r="D1377">
+        <v>5.3402820000000002</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1378">
+        <v>4.5</v>
+      </c>
+      <c r="B1378">
+        <v>2</v>
+      </c>
+      <c r="C1378">
+        <v>0</v>
+      </c>
+      <c r="D1378">
+        <v>2.8070789999999999</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1379">
+        <v>4.5</v>
+      </c>
+      <c r="B1379">
+        <v>2</v>
+      </c>
+      <c r="C1379">
+        <v>15</v>
+      </c>
+      <c r="D1379">
+        <v>3.1205910000000001</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1380">
+        <v>4.5</v>
+      </c>
+      <c r="B1380">
+        <v>2</v>
+      </c>
+      <c r="C1380">
+        <v>30</v>
+      </c>
+      <c r="D1380">
+        <v>3.6131419999999999</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1381">
+        <v>4.5</v>
+      </c>
+      <c r="B1381">
+        <v>2</v>
+      </c>
+      <c r="C1381">
+        <v>45</v>
+      </c>
+      <c r="D1381">
+        <v>4.760554</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1382">
+        <v>6.5</v>
+      </c>
+      <c r="B1382">
+        <v>2</v>
+      </c>
+      <c r="C1382">
+        <v>0</v>
+      </c>
+      <c r="D1382">
+        <v>2.57416</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1383">
+        <v>6.5</v>
+      </c>
+      <c r="B1383">
+        <v>2</v>
+      </c>
+      <c r="C1383">
+        <v>15</v>
+      </c>
+      <c r="D1383">
+        <v>2.8613930000000001</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1384">
+        <v>6.5</v>
+      </c>
+      <c r="B1384">
+        <v>2</v>
+      </c>
+      <c r="C1384">
+        <v>30</v>
+      </c>
+      <c r="D1384">
+        <v>3.3226770000000001</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1385">
+        <v>6.5</v>
+      </c>
+      <c r="B1385">
+        <v>2</v>
+      </c>
+      <c r="C1385">
+        <v>45</v>
+      </c>
+      <c r="D1385">
+        <v>4.3864749999999999</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1386">
+        <v>8.5</v>
+      </c>
+      <c r="B1386">
+        <v>2</v>
+      </c>
+      <c r="C1386">
+        <v>0</v>
+      </c>
+      <c r="D1386">
+        <v>2.657778</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1387">
+        <v>8.5</v>
+      </c>
+      <c r="B1387">
+        <v>2</v>
+      </c>
+      <c r="C1387">
+        <v>15</v>
+      </c>
+      <c r="D1387">
+        <v>3.0315249999999998</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1388">
+        <v>8.5</v>
+      </c>
+      <c r="B1388">
+        <v>2</v>
+      </c>
+      <c r="C1388">
+        <v>30</v>
+      </c>
+      <c r="D1388">
+        <v>3.423419</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1389">
+        <v>8.5</v>
+      </c>
+      <c r="B1389">
+        <v>2</v>
+      </c>
+      <c r="C1389">
+        <v>45</v>
+      </c>
+      <c r="D1389">
+        <v>4.1434249999999997</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1390">
+        <v>10.5</v>
+      </c>
+      <c r="B1390">
+        <v>2</v>
+      </c>
+      <c r="C1390">
+        <v>0</v>
+      </c>
+      <c r="D1390">
+        <v>2.5917759999999999</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1391">
+        <v>10.5</v>
+      </c>
+      <c r="B1391">
+        <v>2</v>
+      </c>
+      <c r="C1391">
+        <v>15</v>
+      </c>
+      <c r="D1391">
+        <v>2.963886</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1392">
+        <v>10.5</v>
+      </c>
+      <c r="B1392">
+        <v>2</v>
+      </c>
+      <c r="C1392">
+        <v>30</v>
+      </c>
+      <c r="D1392">
+        <v>3.3538830000000002</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1393">
+        <v>10.5</v>
+      </c>
+      <c r="B1393">
+        <v>2</v>
+      </c>
+      <c r="C1393">
+        <v>45</v>
+      </c>
+      <c r="D1393">
+        <v>4.1897770000000003</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1394">
+        <v>12.5</v>
+      </c>
+      <c r="B1394">
+        <v>2</v>
+      </c>
+      <c r="C1394">
+        <v>0</v>
+      </c>
+      <c r="D1394">
+        <v>2.5421960000000001</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1395">
+        <v>12.5</v>
+      </c>
+      <c r="B1395">
+        <v>2</v>
+      </c>
+      <c r="C1395">
+        <v>15</v>
+      </c>
+      <c r="D1395">
+        <v>2.8915679999999999</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1396">
+        <v>12.5</v>
+      </c>
+      <c r="B1396">
+        <v>2</v>
+      </c>
+      <c r="C1396">
+        <v>30</v>
+      </c>
+      <c r="D1396">
+        <v>3.2969279999999999</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1397">
+        <v>12.5</v>
+      </c>
+      <c r="B1397">
+        <v>2</v>
+      </c>
+      <c r="C1397">
+        <v>45</v>
+      </c>
+      <c r="D1397">
+        <v>4.159173</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1398">
+        <v>14.5</v>
+      </c>
+      <c r="B1398">
+        <v>2</v>
+      </c>
+      <c r="C1398">
+        <v>0</v>
+      </c>
+      <c r="D1398">
+        <v>2.4942530000000001</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1399">
+        <v>14.5</v>
+      </c>
+      <c r="B1399">
+        <v>2</v>
+      </c>
+      <c r="C1399">
+        <v>15</v>
+      </c>
+      <c r="D1399">
+        <v>2.8316940000000002</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1400">
+        <v>14.5</v>
+      </c>
+      <c r="B1400">
+        <v>2</v>
+      </c>
+      <c r="C1400">
+        <v>30</v>
+      </c>
+      <c r="D1400">
+        <v>3.2403179999999998</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1401">
+        <v>14.5</v>
+      </c>
+      <c r="B1401">
+        <v>2</v>
+      </c>
+      <c r="C1401">
+        <v>45</v>
+      </c>
+      <c r="D1401">
+        <v>4.0787319999999996</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1402">
+        <v>16.5</v>
+      </c>
+      <c r="B1402">
+        <v>2</v>
+      </c>
+      <c r="C1402">
+        <v>0</v>
+      </c>
+      <c r="D1402">
+        <v>2.4704869999999999</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1403">
+        <v>16.5</v>
+      </c>
+      <c r="B1403">
+        <v>2</v>
+      </c>
+      <c r="C1403">
+        <v>15</v>
+      </c>
+      <c r="D1403">
+        <v>2.8048150000000001</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1404">
+        <v>16.5</v>
+      </c>
+      <c r="B1404">
+        <v>2</v>
+      </c>
+      <c r="C1404">
+        <v>30</v>
+      </c>
+      <c r="D1404">
+        <v>3.2221479999999998</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1405">
+        <v>16.5</v>
+      </c>
+      <c r="B1405">
+        <v>2</v>
+      </c>
+      <c r="C1405">
+        <v>45</v>
+      </c>
+      <c r="D1405">
+        <v>4.0389949999999999</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1406">
+        <v>18.5</v>
+      </c>
+      <c r="B1406">
+        <v>2</v>
+      </c>
+      <c r="C1406">
+        <v>0</v>
+      </c>
+      <c r="D1406">
+        <v>2.4247899999999998</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1407">
+        <v>18.5</v>
+      </c>
+      <c r="B1407">
+        <v>2</v>
+      </c>
+      <c r="C1407">
+        <v>15</v>
+      </c>
+      <c r="D1407">
+        <v>2.721997</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1408">
+        <v>18.5</v>
+      </c>
+      <c r="B1408">
+        <v>2</v>
+      </c>
+      <c r="C1408">
+        <v>30</v>
+      </c>
+      <c r="D1408">
+        <v>3.1599560000000002</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1409">
+        <v>18.5</v>
+      </c>
+      <c r="B1409">
+        <v>2</v>
+      </c>
+      <c r="C1409">
+        <v>45</v>
+      </c>
+      <c r="D1409">
+        <v>4.0407549999999999</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1410">
+        <v>20.5</v>
+      </c>
+      <c r="B1410">
+        <v>2</v>
+      </c>
+      <c r="C1410">
+        <v>0</v>
+      </c>
+      <c r="D1410">
+        <v>2.3664550000000002</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1411">
+        <v>20.5</v>
+      </c>
+      <c r="B1411">
+        <v>2</v>
+      </c>
+      <c r="C1411">
+        <v>15</v>
+      </c>
+      <c r="D1411">
+        <v>2.6763330000000001</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1412">
+        <v>20.5</v>
+      </c>
+      <c r="B1412">
+        <v>2</v>
+      </c>
+      <c r="C1412">
+        <v>30</v>
+      </c>
+      <c r="D1412">
+        <v>3.1062859999999999</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1413">
+        <v>20.5</v>
+      </c>
+      <c r="B1413">
+        <v>2</v>
+      </c>
+      <c r="C1413">
+        <v>45</v>
+      </c>
+      <c r="D1413">
+        <v>3.9497439999999999</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1414">
+        <v>22.5</v>
+      </c>
+      <c r="B1414">
+        <v>2</v>
+      </c>
+      <c r="C1414">
+        <v>0</v>
+      </c>
+      <c r="D1414">
+        <v>2.3629549999999999</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1415">
+        <v>22.5</v>
+      </c>
+      <c r="B1415">
+        <v>2</v>
+      </c>
+      <c r="C1415">
+        <v>15</v>
+      </c>
+      <c r="D1415">
+        <v>2.6849419999999999</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1416">
+        <v>22.5</v>
+      </c>
+      <c r="B1416">
+        <v>2</v>
+      </c>
+      <c r="C1416">
+        <v>30</v>
+      </c>
+      <c r="D1416">
+        <v>3.0866069999999999</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1417">
+        <v>22.5</v>
+      </c>
+      <c r="B1417">
+        <v>2</v>
+      </c>
+      <c r="C1417">
+        <v>45</v>
+      </c>
+      <c r="D1417">
+        <v>3.870063</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1418">
+        <v>24.5</v>
+      </c>
+      <c r="B1418">
+        <v>2</v>
+      </c>
+      <c r="C1418">
+        <v>0</v>
+      </c>
+      <c r="D1418">
+        <v>2.416261</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1419">
+        <v>24.5</v>
+      </c>
+      <c r="B1419">
+        <v>2</v>
+      </c>
+      <c r="C1419">
+        <v>15</v>
+      </c>
+      <c r="D1419">
+        <v>2.7196030000000002</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1420">
+        <v>24.5</v>
+      </c>
+      <c r="B1420">
+        <v>2</v>
+      </c>
+      <c r="C1420">
+        <v>30</v>
+      </c>
+      <c r="D1420">
+        <v>3.1478359999999999</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1421">
+        <v>24.5</v>
+      </c>
+      <c r="B1421">
+        <v>2</v>
+      </c>
+      <c r="C1421">
+        <v>45</v>
+      </c>
+      <c r="D1421">
+        <v>3.8254009999999998</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1422">
+        <v>26.5</v>
+      </c>
+      <c r="B1422">
+        <v>2</v>
+      </c>
+      <c r="C1422">
+        <v>0</v>
+      </c>
+      <c r="D1422">
+        <v>2.4601000000000002</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1423">
+        <v>26.5</v>
+      </c>
+      <c r="B1423">
+        <v>2</v>
+      </c>
+      <c r="C1423">
+        <v>15</v>
+      </c>
+      <c r="D1423">
+        <v>2.7408730000000001</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1424">
+        <v>26.5</v>
+      </c>
+      <c r="B1424">
+        <v>2</v>
+      </c>
+      <c r="C1424">
+        <v>30</v>
+      </c>
+      <c r="D1424">
+        <v>3.1941389999999998</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1425">
+        <v>26.5</v>
+      </c>
+      <c r="B1425">
+        <v>2</v>
+      </c>
+      <c r="C1425">
+        <v>45</v>
+      </c>
+      <c r="D1425">
+        <v>3.8496739999999998</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1426">
+        <v>28.5</v>
+      </c>
+      <c r="B1426">
+        <v>2</v>
+      </c>
+      <c r="C1426">
+        <v>0</v>
+      </c>
+      <c r="D1426">
+        <v>2.476712</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1427">
+        <v>28.5</v>
+      </c>
+      <c r="B1427">
+        <v>2</v>
+      </c>
+      <c r="C1427">
+        <v>15</v>
+      </c>
+      <c r="D1427">
+        <v>2.7579210000000001</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1428">
+        <v>28.5</v>
+      </c>
+      <c r="B1428">
+        <v>2</v>
+      </c>
+      <c r="C1428">
+        <v>30</v>
+      </c>
+      <c r="D1428">
+        <v>3.2152750000000001</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1429">
+        <v>28.5</v>
+      </c>
+      <c r="B1429">
+        <v>2</v>
+      </c>
+      <c r="C1429">
+        <v>45</v>
+      </c>
+      <c r="D1429">
+        <v>3.917259</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1430">
+        <v>30.5</v>
+      </c>
+      <c r="B1430">
+        <v>2</v>
+      </c>
+      <c r="C1430">
+        <v>0</v>
+      </c>
+      <c r="D1430">
+        <v>2.5000390000000001</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1431">
+        <v>30.5</v>
+      </c>
+      <c r="B1431">
+        <v>2</v>
+      </c>
+      <c r="C1431">
+        <v>15</v>
+      </c>
+      <c r="D1431">
+        <v>2.8020299999999998</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1432">
+        <v>30.5</v>
+      </c>
+      <c r="B1432">
+        <v>2</v>
+      </c>
+      <c r="C1432">
+        <v>30</v>
+      </c>
+      <c r="D1432">
+        <v>3.238391</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1433">
+        <v>30.5</v>
+      </c>
+      <c r="B1433">
+        <v>2</v>
+      </c>
+      <c r="C1433">
+        <v>45</v>
+      </c>
+      <c r="D1433">
+        <v>3.9724520000000001</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1434">
+        <v>32.5</v>
+      </c>
+      <c r="B1434">
+        <v>2</v>
+      </c>
+      <c r="C1434">
+        <v>0</v>
+      </c>
+      <c r="D1434">
+        <v>2.541703</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1435">
+        <v>32.5</v>
+      </c>
+      <c r="B1435">
+        <v>2</v>
+      </c>
+      <c r="C1435">
+        <v>15</v>
+      </c>
+      <c r="D1435">
+        <v>2.8361190000000001</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1436">
+        <v>32.5</v>
+      </c>
+      <c r="B1436">
+        <v>2</v>
+      </c>
+      <c r="C1436">
+        <v>30</v>
+      </c>
+      <c r="D1436">
+        <v>3.2477870000000002</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1437">
+        <v>32.5</v>
+      </c>
+      <c r="B1437">
+        <v>2</v>
+      </c>
+      <c r="C1437">
+        <v>45</v>
+      </c>
+      <c r="D1437">
+        <v>4.1002670000000014</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1438">
+        <v>34.5</v>
+      </c>
+      <c r="B1438">
+        <v>2</v>
+      </c>
+      <c r="C1438">
+        <v>0</v>
+      </c>
+      <c r="D1438">
+        <v>2.5706829999999998</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1439">
+        <v>34.5</v>
+      </c>
+      <c r="B1439">
+        <v>2</v>
+      </c>
+      <c r="C1439">
+        <v>15</v>
+      </c>
+      <c r="D1439">
+        <v>2.8523670000000001</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1440">
+        <v>34.5</v>
+      </c>
+      <c r="B1440">
+        <v>2</v>
+      </c>
+      <c r="C1440">
+        <v>30</v>
+      </c>
+      <c r="D1440">
+        <v>3.25752</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1441">
+        <v>34.5</v>
+      </c>
+      <c r="B1441">
+        <v>2</v>
+      </c>
+      <c r="C1441">
+        <v>45</v>
+      </c>
+      <c r="D1441">
+        <v>4.1375900000000003</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1442">
+        <v>35</v>
+      </c>
+      <c r="B1442">
+        <v>2</v>
+      </c>
+      <c r="C1442">
+        <v>0</v>
+      </c>
+      <c r="D1442">
+        <v>2.5754959999999998</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1443">
+        <v>35</v>
+      </c>
+      <c r="B1443">
+        <v>2</v>
+      </c>
+      <c r="C1443">
+        <v>15</v>
+      </c>
+      <c r="D1443">
+        <v>2.8565740000000002</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1444">
+        <v>35</v>
+      </c>
+      <c r="B1444">
+        <v>2</v>
+      </c>
+      <c r="C1444">
+        <v>30</v>
+      </c>
+      <c r="D1444">
+        <v>3.2555209999999999</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1445">
+        <v>35</v>
+      </c>
+      <c r="B1445">
+        <v>2</v>
+      </c>
+      <c r="C1445">
+        <v>45</v>
+      </c>
+      <c r="D1445">
+        <v>4.121982</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1446">
+        <v>0.5</v>
+      </c>
+      <c r="B1446">
+        <v>2.25</v>
+      </c>
+      <c r="C1446">
+        <v>0</v>
+      </c>
+      <c r="D1446">
+        <v>4.6235569999999999</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1447">
+        <v>0.5</v>
+      </c>
+      <c r="B1447">
+        <v>2.25</v>
+      </c>
+      <c r="C1447">
+        <v>15</v>
+      </c>
+      <c r="D1447">
+        <v>4.9421619999999997</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1448">
+        <v>0.5</v>
+      </c>
+      <c r="B1448">
+        <v>2.25</v>
+      </c>
+      <c r="C1448">
+        <v>30</v>
+      </c>
+      <c r="D1448">
+        <v>5.6790190000000003</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1449">
+        <v>0.5</v>
+      </c>
+      <c r="B1449">
+        <v>2.25</v>
+      </c>
+      <c r="C1449">
+        <v>45</v>
+      </c>
+      <c r="D1449">
+        <v>7.3191360000000003</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1450">
+        <v>2.5</v>
+      </c>
+      <c r="B1450">
+        <v>2.25</v>
+      </c>
+      <c r="C1450">
+        <v>0</v>
+      </c>
+      <c r="D1450">
+        <v>3.6510929999999999</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1451">
+        <v>2.5</v>
+      </c>
+      <c r="B1451">
+        <v>2.25</v>
+      </c>
+      <c r="C1451">
+        <v>15</v>
+      </c>
+      <c r="D1451">
+        <v>4.0428189999999997</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1452">
+        <v>2.5</v>
+      </c>
+      <c r="B1452">
+        <v>2.25</v>
+      </c>
+      <c r="C1452">
+        <v>30</v>
+      </c>
+      <c r="D1452">
+        <v>4.6961549999999992</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1453">
+        <v>2.5</v>
+      </c>
+      <c r="B1453">
+        <v>2.25</v>
+      </c>
+      <c r="C1453">
+        <v>45</v>
+      </c>
+      <c r="D1453">
+        <v>6.1936999999999998</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1454">
+        <v>4.5</v>
+      </c>
+      <c r="B1454">
+        <v>2.25</v>
+      </c>
+      <c r="C1454">
+        <v>0</v>
+      </c>
+      <c r="D1454">
+        <v>3.3557350000000001</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1455">
+        <v>4.5</v>
+      </c>
+      <c r="B1455">
+        <v>2.25</v>
+      </c>
+      <c r="C1455">
+        <v>15</v>
+      </c>
+      <c r="D1455">
+        <v>3.7804570000000002</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1456">
+        <v>4.5</v>
+      </c>
+      <c r="B1456">
+        <v>2.25</v>
+      </c>
+      <c r="C1456">
+        <v>30</v>
+      </c>
+      <c r="D1456">
+        <v>4.3456590000000004</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1457">
+        <v>4.5</v>
+      </c>
+      <c r="B1457">
+        <v>2.25</v>
+      </c>
+      <c r="C1457">
+        <v>45</v>
+      </c>
+      <c r="D1457">
+        <v>5.7513010000000007</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1458">
+        <v>6.5</v>
+      </c>
+      <c r="B1458">
+        <v>2.25</v>
+      </c>
+      <c r="C1458">
+        <v>0</v>
+      </c>
+      <c r="D1458">
+        <v>3.1011380000000002</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1459">
+        <v>6.5</v>
+      </c>
+      <c r="B1459">
+        <v>2.25</v>
+      </c>
+      <c r="C1459">
+        <v>15</v>
+      </c>
+      <c r="D1459">
+        <v>3.5070429999999999</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1460">
+        <v>6.5</v>
+      </c>
+      <c r="B1460">
+        <v>2.25</v>
+      </c>
+      <c r="C1460">
+        <v>30</v>
+      </c>
+      <c r="D1460">
+        <v>4.0382259999999999</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1461">
+        <v>6.5</v>
+      </c>
+      <c r="B1461">
+        <v>2.25</v>
+      </c>
+      <c r="C1461">
+        <v>45</v>
+      </c>
+      <c r="D1461">
+        <v>5.3273780000000004</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1462">
+        <v>8.5</v>
+      </c>
+      <c r="B1462">
+        <v>2.25</v>
+      </c>
+      <c r="C1462">
+        <v>0</v>
+      </c>
+      <c r="D1462">
+        <v>2.9229699999999998</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1463">
+        <v>8.5</v>
+      </c>
+      <c r="B1463">
+        <v>2.25</v>
+      </c>
+      <c r="C1463">
+        <v>15</v>
+      </c>
+      <c r="D1463">
+        <v>3.3043659999999999</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1464">
+        <v>8.5</v>
+      </c>
+      <c r="B1464">
+        <v>2.25</v>
+      </c>
+      <c r="C1464">
+        <v>30</v>
+      </c>
+      <c r="D1464">
+        <v>3.8065799999999999</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1465">
+        <v>8.5</v>
+      </c>
+      <c r="B1465">
+        <v>2.25</v>
+      </c>
+      <c r="C1465">
+        <v>45</v>
+      </c>
+      <c r="D1465">
+        <v>5.04162</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1466">
+        <v>10.5</v>
+      </c>
+      <c r="B1466">
+        <v>2.25</v>
+      </c>
+      <c r="C1466">
+        <v>0</v>
+      </c>
+      <c r="D1466">
+        <v>2.7461709999999999</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1467">
+        <v>10.5</v>
+      </c>
+      <c r="B1467">
+        <v>2.25</v>
+      </c>
+      <c r="C1467">
+        <v>15</v>
+      </c>
+      <c r="D1467">
+        <v>3.4457499999999999</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1468">
+        <v>10.5</v>
+      </c>
+      <c r="B1468">
+        <v>2.25</v>
+      </c>
+      <c r="C1468">
+        <v>30</v>
+      </c>
+      <c r="D1468">
+        <v>3.5957759999999999</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1469">
+        <v>10.5</v>
+      </c>
+      <c r="B1469">
+        <v>2.25</v>
+      </c>
+      <c r="C1469">
+        <v>45</v>
+      </c>
+      <c r="D1469">
+        <v>4.7910500000000003</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1470">
+        <v>12.5</v>
+      </c>
+      <c r="B1470">
+        <v>2.25</v>
+      </c>
+      <c r="C1470">
+        <v>0</v>
+      </c>
+      <c r="D1470">
+        <v>2.9261569999999999</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1471">
+        <v>12.5</v>
+      </c>
+      <c r="B1471">
+        <v>2.25</v>
+      </c>
+      <c r="C1471">
+        <v>15</v>
+      </c>
+      <c r="D1471">
+        <v>3.3642919999999998</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1472">
+        <v>12.5</v>
+      </c>
+      <c r="B1472">
+        <v>2.25</v>
+      </c>
+      <c r="C1472">
+        <v>30</v>
+      </c>
+      <c r="D1472">
+        <v>3.8025159999999998</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1473">
+        <v>12.5</v>
+      </c>
+      <c r="B1473">
+        <v>2.25</v>
+      </c>
+      <c r="C1473">
+        <v>45</v>
+      </c>
+      <c r="D1473">
+        <v>4.680955</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1474">
+        <v>14.5</v>
+      </c>
+      <c r="B1474">
+        <v>2.25</v>
+      </c>
+      <c r="C1474">
+        <v>0</v>
+      </c>
+      <c r="D1474">
+        <v>2.8748649999999998</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1475">
+        <v>14.5</v>
+      </c>
+      <c r="B1475">
+        <v>2.25</v>
+      </c>
+      <c r="C1475">
+        <v>15</v>
+      </c>
+      <c r="D1475">
+        <v>3.2981240000000001</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1476">
+        <v>14.5</v>
+      </c>
+      <c r="B1476">
+        <v>2.25</v>
+      </c>
+      <c r="C1476">
+        <v>30</v>
+      </c>
+      <c r="D1476">
+        <v>3.7677260000000001</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1477">
+        <v>14.5</v>
+      </c>
+      <c r="B1477">
+        <v>2.25</v>
+      </c>
+      <c r="C1477">
+        <v>45</v>
+      </c>
+      <c r="D1477">
+        <v>4.7011780000000014</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1478">
+        <v>16.5</v>
+      </c>
+      <c r="B1478">
+        <v>2.25</v>
+      </c>
+      <c r="C1478">
+        <v>0</v>
+      </c>
+      <c r="D1478">
+        <v>2.8348019999999998</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1479">
+        <v>16.5</v>
+      </c>
+      <c r="B1479">
+        <v>2.25</v>
+      </c>
+      <c r="C1479">
+        <v>15</v>
+      </c>
+      <c r="D1479">
+        <v>3.237247</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1480">
+        <v>16.5</v>
+      </c>
+      <c r="B1480">
+        <v>2.25</v>
+      </c>
+      <c r="C1480">
+        <v>30</v>
+      </c>
+      <c r="D1480">
+        <v>3.72946</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1481">
+        <v>16.5</v>
+      </c>
+      <c r="B1481">
+        <v>2.25</v>
+      </c>
+      <c r="C1481">
+        <v>45</v>
+      </c>
+      <c r="D1481">
+        <v>4.6957309999999994</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1482">
+        <v>18.5</v>
+      </c>
+      <c r="B1482">
+        <v>2.25</v>
+      </c>
+      <c r="C1482">
+        <v>0</v>
+      </c>
+      <c r="D1482">
+        <v>2.7981349999999998</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1483">
+        <v>18.5</v>
+      </c>
+      <c r="B1483">
+        <v>2.25</v>
+      </c>
+      <c r="C1483">
+        <v>15</v>
+      </c>
+      <c r="D1483">
+        <v>3.1715239999999998</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1484">
+        <v>18.5</v>
+      </c>
+      <c r="B1484">
+        <v>2.25</v>
+      </c>
+      <c r="C1484">
+        <v>30</v>
+      </c>
+      <c r="D1484">
+        <v>3.6725029999999999</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1485">
+        <v>18.5</v>
+      </c>
+      <c r="B1485">
+        <v>2.25</v>
+      </c>
+      <c r="C1485">
+        <v>45</v>
+      </c>
+      <c r="D1485">
+        <v>4.6515819999999994</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1486">
+        <v>20.5</v>
+      </c>
+      <c r="B1486">
+        <v>2.25</v>
+      </c>
+      <c r="C1486">
+        <v>0</v>
+      </c>
+      <c r="D1486">
+        <v>2.7537509999999998</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1487">
+        <v>20.5</v>
+      </c>
+      <c r="B1487">
+        <v>2.25</v>
+      </c>
+      <c r="C1487">
+        <v>15</v>
+      </c>
+      <c r="D1487">
+        <v>3.123907</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1488">
+        <v>20.5</v>
+      </c>
+      <c r="B1488">
+        <v>2.25</v>
+      </c>
+      <c r="C1488">
+        <v>30</v>
+      </c>
+      <c r="D1488">
+        <v>3.628368</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1489">
+        <v>20.5</v>
+      </c>
+      <c r="B1489">
+        <v>2.25</v>
+      </c>
+      <c r="C1489">
+        <v>45</v>
+      </c>
+      <c r="D1489">
+        <v>4.5805699999999998</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1490">
+        <v>22.5</v>
+      </c>
+      <c r="B1490">
+        <v>2.25</v>
+      </c>
+      <c r="C1490">
+        <v>0</v>
+      </c>
+      <c r="D1490">
+        <v>2.731236</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1491">
+        <v>22.5</v>
+      </c>
+      <c r="B1491">
+        <v>2.25</v>
+      </c>
+      <c r="C1491">
+        <v>15</v>
+      </c>
+      <c r="D1491">
+        <v>3.0935239999999999</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1492">
+        <v>22.5</v>
+      </c>
+      <c r="B1492">
+        <v>2.25</v>
+      </c>
+      <c r="C1492">
+        <v>30</v>
+      </c>
+      <c r="D1492">
+        <v>3.6112289999999998</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1493">
+        <v>22.5</v>
+      </c>
+      <c r="B1493">
+        <v>2.25</v>
+      </c>
+      <c r="C1493">
+        <v>45</v>
+      </c>
+      <c r="D1493">
+        <v>4.547574</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1494">
+        <v>24.5</v>
+      </c>
+      <c r="B1494">
+        <v>2.25</v>
+      </c>
+      <c r="C1494">
+        <v>0</v>
+      </c>
+      <c r="D1494">
+        <v>2.7252860000000001</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1495">
+        <v>24.5</v>
+      </c>
+      <c r="B1495">
+        <v>2.25</v>
+      </c>
+      <c r="C1495">
+        <v>15</v>
+      </c>
+      <c r="D1495">
+        <v>3.076184</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1496">
+        <v>24.5</v>
+      </c>
+      <c r="B1496">
+        <v>2.25</v>
+      </c>
+      <c r="C1496">
+        <v>30</v>
+      </c>
+      <c r="D1496">
+        <v>3.616117</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1497">
+        <v>24.5</v>
+      </c>
+      <c r="B1497">
+        <v>2.25</v>
+      </c>
+      <c r="C1497">
+        <v>45</v>
+      </c>
+      <c r="D1497">
+        <v>4.525849</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1498">
+        <v>26.5</v>
+      </c>
+      <c r="B1498">
+        <v>2.25</v>
+      </c>
+      <c r="C1498">
+        <v>0</v>
+      </c>
+      <c r="D1498">
+        <v>2.6857340000000001</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1499">
+        <v>26.5</v>
+      </c>
+      <c r="B1499">
+        <v>2.25</v>
+      </c>
+      <c r="C1499">
+        <v>15</v>
+      </c>
+      <c r="D1499">
+        <v>3.0095339999999999</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1500">
+        <v>26.5</v>
+      </c>
+      <c r="B1500">
+        <v>2.25</v>
+      </c>
+      <c r="C1500">
+        <v>30</v>
+      </c>
+      <c r="D1500">
+        <v>3.5477050000000001</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1501">
+        <v>26.5</v>
+      </c>
+      <c r="B1501">
+        <v>2.25</v>
+      </c>
+      <c r="C1501">
+        <v>45</v>
+      </c>
+      <c r="D1501">
+        <v>4.560003</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1502">
+        <v>28.5</v>
+      </c>
+      <c r="B1502">
+        <v>2.25</v>
+      </c>
+      <c r="C1502">
+        <v>0</v>
+      </c>
+      <c r="D1502">
+        <v>2.6315179999999998</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1503">
+        <v>28.5</v>
+      </c>
+      <c r="B1503">
+        <v>2.25</v>
+      </c>
+      <c r="C1503">
+        <v>15</v>
+      </c>
+      <c r="D1503">
+        <v>2.9641679999999999</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1504">
+        <v>28.5</v>
+      </c>
+      <c r="B1504">
+        <v>2.25</v>
+      </c>
+      <c r="C1504">
+        <v>30</v>
+      </c>
+      <c r="D1504">
+        <v>3.49139</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1505">
+        <v>28.5</v>
+      </c>
+      <c r="B1505">
+        <v>2.25</v>
+      </c>
+      <c r="C1505">
+        <v>45</v>
+      </c>
+      <c r="D1505">
+        <v>4.4802049999999998</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1506">
+        <v>30.5</v>
+      </c>
+      <c r="B1506">
+        <v>2.25</v>
+      </c>
+      <c r="C1506">
+        <v>0</v>
+      </c>
+      <c r="D1506">
+        <v>2.6094919999999999</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1507">
+        <v>30.5</v>
+      </c>
+      <c r="B1507">
+        <v>2.25</v>
+      </c>
+      <c r="C1507">
+        <v>15</v>
+      </c>
+      <c r="D1507">
+        <v>2.945919</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1508">
+        <v>30.5</v>
+      </c>
+      <c r="B1508">
+        <v>2.25</v>
+      </c>
+      <c r="C1508">
+        <v>30</v>
+      </c>
+      <c r="D1508">
+        <v>3.4680309999999999</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1509">
+        <v>30.5</v>
+      </c>
+      <c r="B1509">
+        <v>2.25</v>
+      </c>
+      <c r="C1509">
+        <v>45</v>
+      </c>
+      <c r="D1509">
+        <v>4.4061700000000004</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1510">
+        <v>32.5</v>
+      </c>
+      <c r="B1510">
+        <v>2.25</v>
+      </c>
+      <c r="C1510">
+        <v>0</v>
+      </c>
+      <c r="D1510">
+        <v>2.6079210000000002</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1511">
+        <v>32.5</v>
+      </c>
+      <c r="B1511">
+        <v>2.25</v>
+      </c>
+      <c r="C1511">
+        <v>15</v>
+      </c>
+      <c r="D1511">
+        <v>2.9649529999999999</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1512">
+        <v>32.5</v>
+      </c>
+      <c r="B1512">
+        <v>2.25</v>
+      </c>
+      <c r="C1512">
+        <v>30</v>
+      </c>
+      <c r="D1512">
+        <v>3.4614530000000001</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1513">
+        <v>32.5</v>
+      </c>
+      <c r="B1513">
+        <v>2.25</v>
+      </c>
+      <c r="C1513">
+        <v>45</v>
+      </c>
+      <c r="D1513">
+        <v>4.3309680000000004</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1514">
+        <v>34.5</v>
+      </c>
+      <c r="B1514">
+        <v>2.25</v>
+      </c>
+      <c r="C1514">
+        <v>0</v>
+      </c>
+      <c r="D1514">
+        <v>2.6364860000000001</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1515">
+        <v>34.5</v>
+      </c>
+      <c r="B1515">
+        <v>2.25</v>
+      </c>
+      <c r="C1515">
+        <v>15</v>
+      </c>
+      <c r="D1515">
+        <v>2.9934940000000001</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1516">
+        <v>34.5</v>
+      </c>
+      <c r="B1516">
+        <v>2.25</v>
+      </c>
+      <c r="C1516">
+        <v>30</v>
+      </c>
+      <c r="D1516">
+        <v>3.5006210000000002</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1517">
+        <v>34.5</v>
+      </c>
+      <c r="B1517">
+        <v>2.25</v>
+      </c>
+      <c r="C1517">
+        <v>45</v>
+      </c>
+      <c r="D1517">
+        <v>4.2908729999999986</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1518">
+        <v>35</v>
+      </c>
+      <c r="B1518">
+        <v>2.25</v>
+      </c>
+      <c r="C1518">
+        <v>0</v>
+      </c>
+      <c r="D1518">
+        <v>2.6563479999999999</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1519">
+        <v>35</v>
+      </c>
+      <c r="B1519">
+        <v>2.25</v>
+      </c>
+      <c r="C1519">
+        <v>15</v>
+      </c>
+      <c r="D1519">
+        <v>2.9946199999999998</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1520">
+        <v>35</v>
+      </c>
+      <c r="B1520">
+        <v>2.25</v>
+      </c>
+      <c r="C1520">
+        <v>30</v>
+      </c>
+      <c r="D1520">
+        <v>3.5111029999999999</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1521">
+        <v>35</v>
+      </c>
+      <c r="B1521">
+        <v>2.25</v>
+      </c>
+      <c r="C1521">
+        <v>45</v>
+      </c>
+      <c r="D1521">
+        <v>4.2820740000000006</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1522">
+        <v>0.5</v>
+      </c>
+      <c r="B1522">
+        <v>2.5</v>
+      </c>
+      <c r="C1522">
+        <v>0</v>
+      </c>
+      <c r="D1522">
+        <v>5.2629869999999999</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1523">
+        <v>0.5</v>
+      </c>
+      <c r="B1523">
+        <v>2.5</v>
+      </c>
+      <c r="C1523">
+        <v>15</v>
+      </c>
+      <c r="D1523">
+        <v>5.6570960000000001</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1524">
+        <v>0.5</v>
+      </c>
+      <c r="B1524">
+        <v>2.5</v>
+      </c>
+      <c r="C1524">
+        <v>30</v>
+      </c>
+      <c r="D1524">
+        <v>6.4943010000000001</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1525">
+        <v>0.5</v>
+      </c>
+      <c r="B1525">
+        <v>2.5</v>
+      </c>
+      <c r="C1525">
+        <v>45</v>
+      </c>
+      <c r="D1525">
+        <v>8.3235580000000002</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1526">
+        <v>2.5</v>
+      </c>
+      <c r="B1526">
+        <v>2.5</v>
+      </c>
+      <c r="C1526">
+        <v>0</v>
+      </c>
+      <c r="D1526">
+        <v>4.232869</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1527">
+        <v>2.5</v>
+      </c>
+      <c r="B1527">
+        <v>2.5</v>
+      </c>
+      <c r="C1527">
+        <v>15</v>
+      </c>
+      <c r="D1527">
+        <v>4.718674</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1528">
+        <v>2.5</v>
+      </c>
+      <c r="B1528">
+        <v>2.5</v>
+      </c>
+      <c r="C1528">
+        <v>30</v>
+      </c>
+      <c r="D1528">
+        <v>5.4685290000000002</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1529">
+        <v>2.5</v>
+      </c>
+      <c r="B1529">
+        <v>2.5</v>
+      </c>
+      <c r="C1529">
+        <v>45</v>
+      </c>
+      <c r="D1529">
+        <v>7.1633260000000014</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1530">
+        <v>4.5</v>
+      </c>
+      <c r="B1530">
+        <v>2.5</v>
+      </c>
+      <c r="C1530">
+        <v>0</v>
+      </c>
+      <c r="D1530">
+        <v>3.8117640000000002</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1531">
+        <v>4.5</v>
+      </c>
+      <c r="B1531">
+        <v>2.5</v>
+      </c>
+      <c r="C1531">
+        <v>15</v>
+      </c>
+      <c r="D1531">
+        <v>4.3005020000000007</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1532">
+        <v>4.5</v>
+      </c>
+      <c r="B1532">
+        <v>2.5</v>
+      </c>
+      <c r="C1532">
+        <v>30</v>
+      </c>
+      <c r="D1532">
+        <v>4.9972940000000001</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1533">
+        <v>4.5</v>
+      </c>
+      <c r="B1533">
+        <v>2.5</v>
+      </c>
+      <c r="C1533">
+        <v>45</v>
+      </c>
+      <c r="D1533">
+        <v>6.5879570000000003</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1534">
+        <v>6.5</v>
+      </c>
+      <c r="B1534">
+        <v>2.5</v>
+      </c>
+      <c r="C1534">
+        <v>0</v>
+      </c>
+      <c r="D1534">
+        <v>3.668739</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1535">
+        <v>6.5</v>
+      </c>
+      <c r="B1535">
+        <v>2.5</v>
+      </c>
+      <c r="C1535">
+        <v>15</v>
+      </c>
+      <c r="D1535">
+        <v>4.1519720000000007</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1536">
+        <v>6.5</v>
+      </c>
+      <c r="B1536">
+        <v>2.5</v>
+      </c>
+      <c r="C1536">
+        <v>30</v>
+      </c>
+      <c r="D1536">
+        <v>4.7978670000000001</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1537">
+        <v>6.5</v>
+      </c>
+      <c r="B1537">
+        <v>2.5</v>
+      </c>
+      <c r="C1537">
+        <v>45</v>
+      </c>
+      <c r="D1537">
+        <v>6.3115699999999997</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1538">
+        <v>8.5</v>
+      </c>
+      <c r="B1538">
+        <v>2.5</v>
+      </c>
+      <c r="C1538">
+        <v>0</v>
+      </c>
+      <c r="D1538">
+        <v>3.4492539999999998</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1539">
+        <v>8.5</v>
+      </c>
+      <c r="B1539">
+        <v>2.5</v>
+      </c>
+      <c r="C1539">
+        <v>15</v>
+      </c>
+      <c r="D1539">
+        <v>3.945411</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1540">
+        <v>8.5</v>
+      </c>
+      <c r="B1540">
+        <v>2.5</v>
+      </c>
+      <c r="C1540">
+        <v>30</v>
+      </c>
+      <c r="D1540">
+        <v>4.5432379999999997</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1541">
+        <v>8.5</v>
+      </c>
+      <c r="B1541">
+        <v>2.5</v>
+      </c>
+      <c r="C1541">
+        <v>45</v>
+      </c>
+      <c r="D1541">
+        <v>5.9773889999999996</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1542">
+        <v>10.5</v>
+      </c>
+      <c r="B1542">
+        <v>2.5</v>
+      </c>
+      <c r="C1542">
+        <v>0</v>
+      </c>
+      <c r="D1542">
+        <v>3.2879969999999998</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1543">
+        <v>10.5</v>
+      </c>
+      <c r="B1543">
+        <v>2.5</v>
+      </c>
+      <c r="C1543">
+        <v>15</v>
+      </c>
+      <c r="D1543">
+        <v>3.7544849999999999</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1544">
+        <v>10.5</v>
+      </c>
+      <c r="B1544">
+        <v>2.5</v>
+      </c>
+      <c r="C1544">
+        <v>30</v>
+      </c>
+      <c r="D1544">
+        <v>4.3279750000000003</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1545">
+        <v>10.5</v>
+      </c>
+      <c r="B1545">
+        <v>2.5</v>
+      </c>
+      <c r="C1545">
+        <v>45</v>
+      </c>
+      <c r="D1545">
+        <v>5.7114189999999994</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1546">
+        <v>12.5</v>
+      </c>
+      <c r="B1546">
+        <v>2.5</v>
+      </c>
+      <c r="C1546">
+        <v>0</v>
+      </c>
+      <c r="D1546">
+        <v>3.1536550000000001</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1547">
+        <v>12.5</v>
+      </c>
+      <c r="B1547">
+        <v>2.5</v>
+      </c>
+      <c r="C1547">
+        <v>15</v>
+      </c>
+      <c r="D1547">
+        <v>3.5957949999999999</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1548">
+        <v>12.5</v>
+      </c>
+      <c r="B1548">
+        <v>2.5</v>
+      </c>
+      <c r="C1548">
+        <v>30</v>
+      </c>
+      <c r="D1548">
+        <v>4.1568550000000002</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1549">
+        <v>12.5</v>
+      </c>
+      <c r="B1549">
+        <v>2.5</v>
+      </c>
+      <c r="C1549">
+        <v>45</v>
+      </c>
+      <c r="D1549">
+        <v>5.497236</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1550">
+        <v>14.5</v>
+      </c>
+      <c r="B1550">
+        <v>2.5</v>
+      </c>
+      <c r="C1550">
+        <v>0</v>
+      </c>
+      <c r="D1550">
+        <v>3.0165829999999998</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1551">
+        <v>14.5</v>
+      </c>
+      <c r="B1551">
+        <v>2.5</v>
+      </c>
+      <c r="C1551">
+        <v>15</v>
+      </c>
+      <c r="D1551">
+        <v>3.786654</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1552">
+        <v>14.5</v>
+      </c>
+      <c r="B1552">
+        <v>2.5</v>
+      </c>
+      <c r="C1552">
+        <v>30</v>
+      </c>
+      <c r="D1552">
+        <v>3.9988990000000002</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1553">
+        <v>14.5</v>
+      </c>
+      <c r="B1553">
+        <v>2.5</v>
+      </c>
+      <c r="C1553">
+        <v>45</v>
+      </c>
+      <c r="D1553">
+        <v>5.3122760000000007</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1554">
+        <v>16.5</v>
+      </c>
+      <c r="B1554">
+        <v>2.5</v>
+      </c>
+      <c r="C1554">
+        <v>0</v>
+      </c>
+      <c r="D1554">
+        <v>3.217136</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1555">
+        <v>16.5</v>
+      </c>
+      <c r="B1555">
+        <v>2.5</v>
+      </c>
+      <c r="C1555">
+        <v>15</v>
+      </c>
+      <c r="D1555">
+        <v>3.708078</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1556">
+        <v>16.5</v>
+      </c>
+      <c r="B1556">
+        <v>2.5</v>
+      </c>
+      <c r="C1556">
+        <v>30</v>
+      </c>
+      <c r="D1556">
+        <v>4.2298730000000004</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1557">
+        <v>16.5</v>
+      </c>
+      <c r="B1557">
+        <v>2.5</v>
+      </c>
+      <c r="C1557">
+        <v>45</v>
+      </c>
+      <c r="D1557">
+        <v>5.1487939999999996</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1558">
+        <v>18.5</v>
+      </c>
+      <c r="B1558">
+        <v>2.5</v>
+      </c>
+      <c r="C1558">
+        <v>0</v>
+      </c>
+      <c r="D1558">
+        <v>3.1753269999999998</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1559">
+        <v>18.5</v>
+      </c>
+      <c r="B1559">
+        <v>2.5</v>
+      </c>
+      <c r="C1559">
+        <v>15</v>
+      </c>
+      <c r="D1559">
+        <v>3.6481620000000001</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1560">
+        <v>18.5</v>
+      </c>
+      <c r="B1560">
+        <v>2.5</v>
+      </c>
+      <c r="C1560">
+        <v>30</v>
+      </c>
+      <c r="D1560">
+        <v>4.2120329999999999</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1561">
+        <v>18.5</v>
+      </c>
+      <c r="B1561">
+        <v>2.5</v>
+      </c>
+      <c r="C1561">
+        <v>45</v>
+      </c>
+      <c r="D1561">
+        <v>5.210871</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1562">
+        <v>20.5</v>
+      </c>
+      <c r="B1562">
+        <v>2.5</v>
+      </c>
+      <c r="C1562">
+        <v>0</v>
+      </c>
+      <c r="D1562">
+        <v>3.1419380000000001</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1563">
+        <v>20.5</v>
+      </c>
+      <c r="B1563">
+        <v>2.5</v>
+      </c>
+      <c r="C1563">
+        <v>15</v>
+      </c>
+      <c r="D1563">
+        <v>3.5886040000000001</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1564">
+        <v>20.5</v>
+      </c>
+      <c r="B1564">
+        <v>2.5</v>
+      </c>
+      <c r="C1564">
+        <v>30</v>
+      </c>
+      <c r="D1564">
+        <v>4.1719229999999996</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1565">
+        <v>20.5</v>
+      </c>
+      <c r="B1565">
+        <v>2.5</v>
+      </c>
+      <c r="C1565">
+        <v>45</v>
+      </c>
+      <c r="D1565">
+        <v>5.2184900000000001</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1566">
+        <v>22.5</v>
+      </c>
+      <c r="B1566">
+        <v>2.5</v>
+      </c>
+      <c r="C1566">
+        <v>0</v>
+      </c>
+      <c r="D1566">
+        <v>3.1073870000000001</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1567">
+        <v>22.5</v>
+      </c>
+      <c r="B1567">
+        <v>2.5</v>
+      </c>
+      <c r="C1567">
+        <v>15</v>
+      </c>
+      <c r="D1567">
+        <v>3.5390730000000001</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1568">
+        <v>22.5</v>
+      </c>
+      <c r="B1568">
+        <v>2.5</v>
+      </c>
+      <c r="C1568">
+        <v>30</v>
+      </c>
+      <c r="D1568">
+        <v>4.1417959999999994</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1569">
+        <v>22.5</v>
+      </c>
+      <c r="B1569">
+        <v>2.5</v>
+      </c>
+      <c r="C1569">
+        <v>45</v>
+      </c>
+      <c r="D1569">
+        <v>5.2038820000000001</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1570">
+        <v>24.5</v>
+      </c>
+      <c r="B1570">
+        <v>2.5</v>
+      </c>
+      <c r="C1570">
+        <v>0</v>
+      </c>
+      <c r="D1570">
+        <v>3.0812740000000001</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1571">
+        <v>24.5</v>
+      </c>
+      <c r="B1571">
+        <v>2.5</v>
+      </c>
+      <c r="C1571">
+        <v>15</v>
+      </c>
+      <c r="D1571">
+        <v>3.493341</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1572">
+        <v>24.5</v>
+      </c>
+      <c r="B1572">
+        <v>2.5</v>
+      </c>
+      <c r="C1572">
+        <v>30</v>
+      </c>
+      <c r="D1572">
+        <v>4.1086010000000002</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1573">
+        <v>24.5</v>
+      </c>
+      <c r="B1573">
+        <v>2.5</v>
+      </c>
+      <c r="C1573">
+        <v>45</v>
+      </c>
+      <c r="D1573">
+        <v>5.182525</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1574">
+        <v>26.5</v>
+      </c>
+      <c r="B1574">
+        <v>2.5</v>
+      </c>
+      <c r="C1574">
+        <v>0</v>
+      </c>
+      <c r="D1574">
+        <v>3.0451109999999999</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1575">
+        <v>26.5</v>
+      </c>
+      <c r="B1575">
+        <v>2.5</v>
+      </c>
+      <c r="C1575">
+        <v>15</v>
+      </c>
+      <c r="D1575">
+        <v>3.4436840000000002</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1576">
+        <v>26.5</v>
+      </c>
+      <c r="B1576">
+        <v>2.5</v>
+      </c>
+      <c r="C1576">
+        <v>30</v>
+      </c>
+      <c r="D1576">
+        <v>4.0543319999999996</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1577">
+        <v>26.5</v>
+      </c>
+      <c r="B1577">
+        <v>2.5</v>
+      </c>
+      <c r="C1577">
+        <v>45</v>
+      </c>
+      <c r="D1577">
+        <v>5.1329699999999994</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1578">
+        <v>28.5</v>
+      </c>
+      <c r="B1578">
+        <v>2.5</v>
+      </c>
+      <c r="C1578">
+        <v>0</v>
+      </c>
+      <c r="D1578">
+        <v>3.0127920000000001</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1579">
+        <v>28.5</v>
+      </c>
+      <c r="B1579">
+        <v>2.5</v>
+      </c>
+      <c r="C1579">
+        <v>15</v>
+      </c>
+      <c r="D1579">
+        <v>3.412439</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1580">
+        <v>28.5</v>
+      </c>
+      <c r="B1580">
+        <v>2.5</v>
+      </c>
+      <c r="C1580">
+        <v>30</v>
+      </c>
+      <c r="D1580">
+        <v>4.0279729999999994</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1581">
+        <v>28.5</v>
+      </c>
+      <c r="B1581">
+        <v>2.5</v>
+      </c>
+      <c r="C1581">
+        <v>45</v>
+      </c>
+      <c r="D1581">
+        <v>5.077871</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1582">
+        <v>30.5</v>
+      </c>
+      <c r="B1582">
+        <v>2.5</v>
+      </c>
+      <c r="C1582">
+        <v>0</v>
+      </c>
+      <c r="D1582">
+        <v>2.992874</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1583">
+        <v>30.5</v>
+      </c>
+      <c r="B1583">
+        <v>2.5</v>
+      </c>
+      <c r="C1583">
+        <v>15</v>
+      </c>
+      <c r="D1583">
+        <v>3.3943020000000002</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1584">
+        <v>30.5</v>
+      </c>
+      <c r="B1584">
+        <v>2.5</v>
+      </c>
+      <c r="C1584">
+        <v>30</v>
+      </c>
+      <c r="D1584">
+        <v>4.0129780000000004</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1585">
+        <v>30.5</v>
+      </c>
+      <c r="B1585">
+        <v>2.5</v>
+      </c>
+      <c r="C1585">
+        <v>45</v>
+      </c>
+      <c r="D1585">
+        <v>5.0495139999999994</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1586">
+        <v>32.5</v>
+      </c>
+      <c r="B1586">
+        <v>2.5</v>
+      </c>
+      <c r="C1586">
+        <v>0</v>
+      </c>
+      <c r="D1586">
+        <v>2.98332</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1587">
+        <v>32.5</v>
+      </c>
+      <c r="B1587">
+        <v>2.5</v>
+      </c>
+      <c r="C1587">
+        <v>15</v>
+      </c>
+      <c r="D1587">
+        <v>3.374044</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1588">
+        <v>32.5</v>
+      </c>
+      <c r="B1588">
+        <v>2.5</v>
+      </c>
+      <c r="C1588">
+        <v>30</v>
+      </c>
+      <c r="D1588">
+        <v>4.002065</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1589">
+        <v>32.5</v>
+      </c>
+      <c r="B1589">
+        <v>2.5</v>
+      </c>
+      <c r="C1589">
+        <v>45</v>
+      </c>
+      <c r="D1589">
+        <v>5.0245730000000002</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1590">
+        <v>34.5</v>
+      </c>
+      <c r="B1590">
+        <v>2.5</v>
+      </c>
+      <c r="C1590">
+        <v>0</v>
+      </c>
+      <c r="D1590">
+        <v>2.9804379999999999</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1591">
+        <v>34.5</v>
+      </c>
+      <c r="B1591">
+        <v>2.5</v>
+      </c>
+      <c r="C1591">
+        <v>15</v>
+      </c>
+      <c r="D1591">
+        <v>3.3637299999999999</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1592">
+        <v>34.5</v>
+      </c>
+      <c r="B1592">
+        <v>2.5</v>
+      </c>
+      <c r="C1592">
+        <v>30</v>
+      </c>
+      <c r="D1592">
+        <v>4.0082900000000006</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1593">
+        <v>34.5</v>
+      </c>
+      <c r="B1593">
+        <v>2.5</v>
+      </c>
+      <c r="C1593">
+        <v>45</v>
+      </c>
+      <c r="D1593">
+        <v>5.0101770000000014</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1594">
+        <v>35</v>
+      </c>
+      <c r="B1594">
+        <v>2.5</v>
+      </c>
+      <c r="C1594">
+        <v>0</v>
+      </c>
+      <c r="D1594">
+        <v>2.9775580000000001</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1595">
+        <v>35</v>
+      </c>
+      <c r="B1595">
+        <v>2.5</v>
+      </c>
+      <c r="C1595">
+        <v>15</v>
+      </c>
+      <c r="D1595">
+        <v>3.3458410000000001</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1596">
+        <v>35</v>
+      </c>
+      <c r="B1596">
+        <v>2.5</v>
+      </c>
+      <c r="C1596">
+        <v>30</v>
+      </c>
+      <c r="D1596">
+        <v>3.9871150000000002</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1597">
+        <v>35</v>
+      </c>
+      <c r="B1597">
+        <v>2.5</v>
+      </c>
+      <c r="C1597">
+        <v>45</v>
+      </c>
+      <c r="D1597">
+        <v>5.0138850000000001</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1598">
+        <v>0.5</v>
+      </c>
+      <c r="B1598">
+        <v>2.75</v>
+      </c>
+      <c r="C1598">
+        <v>0</v>
+      </c>
+      <c r="D1598">
+        <v>5.9174670000000003</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1599">
+        <v>0.5</v>
+      </c>
+      <c r="B1599">
+        <v>2.75</v>
+      </c>
+      <c r="C1599">
+        <v>15</v>
+      </c>
+      <c r="D1599">
+        <v>6.3707250000000002</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1600">
+        <v>0.5</v>
+      </c>
+      <c r="B1600">
+        <v>2.75</v>
+      </c>
+      <c r="C1600">
+        <v>30</v>
+      </c>
+      <c r="D1600">
+        <v>7.294581</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1601">
+        <v>0.5</v>
+      </c>
+      <c r="B1601">
+        <v>2.75</v>
+      </c>
+      <c r="C1601">
+        <v>45</v>
+      </c>
+      <c r="D1601">
+        <v>9.3257759999999994</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1602">
+        <v>2.5</v>
+      </c>
+      <c r="B1602">
+        <v>2.75</v>
+      </c>
+      <c r="C1602">
+        <v>0</v>
+      </c>
+      <c r="D1602">
+        <v>4.8268829999999996</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1603">
+        <v>2.5</v>
+      </c>
+      <c r="B1603">
+        <v>2.75</v>
+      </c>
+      <c r="C1603">
+        <v>15</v>
+      </c>
+      <c r="D1603">
+        <v>5.3948809999999998</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1604">
+        <v>2.5</v>
+      </c>
+      <c r="B1604">
+        <v>2.75</v>
+      </c>
+      <c r="C1604">
+        <v>30</v>
+      </c>
+      <c r="D1604">
+        <v>6.2376230000000001</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1605">
+        <v>2.5</v>
+      </c>
+      <c r="B1605">
+        <v>2.75</v>
+      </c>
+      <c r="C1605">
+        <v>45</v>
+      </c>
+      <c r="D1605">
+        <v>8.1399030000000003</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1606">
+        <v>4.5</v>
+      </c>
+      <c r="B1606">
+        <v>2.75</v>
+      </c>
+      <c r="C1606">
+        <v>0</v>
+      </c>
+      <c r="D1606">
+        <v>4.3746130000000001</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1607">
+        <v>4.5</v>
+      </c>
+      <c r="B1607">
+        <v>2.75</v>
+      </c>
+      <c r="C1607">
+        <v>15</v>
+      </c>
+      <c r="D1607">
+        <v>4.9476430000000002</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1608">
+        <v>4.5</v>
+      </c>
+      <c r="B1608">
+        <v>2.75</v>
+      </c>
+      <c r="C1608">
+        <v>30</v>
+      </c>
+      <c r="D1608">
+        <v>5.7438530000000014</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1609">
+        <v>4.5</v>
+      </c>
+      <c r="B1609">
+        <v>2.75</v>
+      </c>
+      <c r="C1609">
+        <v>45</v>
+      </c>
+      <c r="D1609">
+        <v>7.5690769999999992</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1610">
+        <v>6.5</v>
+      </c>
+      <c r="B1610">
+        <v>2.75</v>
+      </c>
+      <c r="C1610">
+        <v>0</v>
+      </c>
+      <c r="D1610">
+        <v>4.0864789999999998</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1611">
+        <v>6.5</v>
+      </c>
+      <c r="B1611">
+        <v>2.75</v>
+      </c>
+      <c r="C1611">
+        <v>15</v>
+      </c>
+      <c r="D1611">
+        <v>4.6545880000000004</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1612">
+        <v>6.5</v>
+      </c>
+      <c r="B1612">
+        <v>2.75</v>
+      </c>
+      <c r="C1612">
+        <v>30</v>
+      </c>
+      <c r="D1612">
+        <v>5.3895169999999997</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1613">
+        <v>6.5</v>
+      </c>
+      <c r="B1613">
+        <v>2.75</v>
+      </c>
+      <c r="C1613">
+        <v>45</v>
+      </c>
+      <c r="D1613">
+        <v>7.3281960000000002</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1614">
+        <v>8.5</v>
+      </c>
+      <c r="B1614">
+        <v>2.75</v>
+      </c>
+      <c r="C1614">
+        <v>0</v>
+      </c>
+      <c r="D1614">
+        <v>3.9078219999999999</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1615">
+        <v>8.5</v>
+      </c>
+      <c r="B1615">
+        <v>2.75</v>
+      </c>
+      <c r="C1615">
+        <v>15</v>
+      </c>
+      <c r="D1615">
+        <v>4.5837810000000001</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1616">
+        <v>8.5</v>
+      </c>
+      <c r="B1616">
+        <v>2.75</v>
+      </c>
+      <c r="C1616">
+        <v>30</v>
+      </c>
+      <c r="D1616">
+        <v>5.2975599999999998</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1617">
+        <v>8.5</v>
+      </c>
+      <c r="B1617">
+        <v>2.75</v>
+      </c>
+      <c r="C1617">
+        <v>45</v>
+      </c>
+      <c r="D1617">
+        <v>6.9677410000000002</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1618">
+        <v>10.5</v>
+      </c>
+      <c r="B1618">
+        <v>2.75</v>
+      </c>
+      <c r="C1618">
+        <v>0</v>
+      </c>
+      <c r="D1618">
+        <v>3.8164410000000002</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1619">
+        <v>10.5</v>
+      </c>
+      <c r="B1619">
+        <v>2.75</v>
+      </c>
+      <c r="C1619">
+        <v>15</v>
+      </c>
+      <c r="D1619">
+        <v>4.3959149999999996</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1620">
+        <v>10.5</v>
+      </c>
+      <c r="B1620">
+        <v>2.75</v>
+      </c>
+      <c r="C1620">
+        <v>30</v>
+      </c>
+      <c r="D1620">
+        <v>5.0637410000000003</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1621">
+        <v>10.5</v>
+      </c>
+      <c r="B1621">
+        <v>2.75</v>
+      </c>
+      <c r="C1621">
+        <v>45</v>
+      </c>
+      <c r="D1621">
+        <v>6.66751</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1622">
+        <v>12.5</v>
+      </c>
+      <c r="B1622">
+        <v>2.75</v>
+      </c>
+      <c r="C1622">
+        <v>0</v>
+      </c>
+      <c r="D1622">
+        <v>3.6764100000000002</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1623">
+        <v>12.5</v>
+      </c>
+      <c r="B1623">
+        <v>2.75</v>
+      </c>
+      <c r="C1623">
+        <v>15</v>
+      </c>
+      <c r="D1623">
+        <v>4.2286330000000003</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1624">
+        <v>12.5</v>
+      </c>
+      <c r="B1624">
+        <v>2.75</v>
+      </c>
+      <c r="C1624">
+        <v>30</v>
+      </c>
+      <c r="D1624">
+        <v>4.8743780000000001</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1625">
+        <v>12.5</v>
+      </c>
+      <c r="B1625">
+        <v>2.75</v>
+      </c>
+      <c r="C1625">
+        <v>45</v>
+      </c>
+      <c r="D1625">
+        <v>6.4277320000000007</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1626">
+        <v>14.5</v>
+      </c>
+      <c r="B1626">
+        <v>2.75</v>
+      </c>
+      <c r="C1626">
+        <v>0</v>
+      </c>
+      <c r="D1626">
+        <v>3.5547040000000001</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1627">
+        <v>14.5</v>
+      </c>
+      <c r="B1627">
+        <v>2.75</v>
+      </c>
+      <c r="C1627">
+        <v>15</v>
+      </c>
+      <c r="D1627">
+        <v>4.0927790000000002</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1628">
+        <v>14.5</v>
+      </c>
+      <c r="B1628">
+        <v>2.75</v>
+      </c>
+      <c r="C1628">
+        <v>30</v>
+      </c>
+      <c r="D1628">
+        <v>4.7189819999999996</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1629">
+        <v>14.5</v>
+      </c>
+      <c r="B1629">
+        <v>2.75</v>
+      </c>
+      <c r="C1629">
+        <v>45</v>
+      </c>
+      <c r="D1629">
+        <v>6.2313000000000001</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1630">
+        <v>16.5</v>
+      </c>
+      <c r="B1630">
+        <v>2.75</v>
+      </c>
+      <c r="C1630">
+        <v>0</v>
+      </c>
+      <c r="D1630">
+        <v>3.4403410000000001</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1631">
+        <v>16.5</v>
+      </c>
+      <c r="B1631">
+        <v>2.75</v>
+      </c>
+      <c r="C1631">
+        <v>15</v>
+      </c>
+      <c r="D1631">
+        <v>3.960642</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1632">
+        <v>16.5</v>
+      </c>
+      <c r="B1632">
+        <v>2.75</v>
+      </c>
+      <c r="C1632">
+        <v>30</v>
+      </c>
+      <c r="D1632">
+        <v>4.5733630000000014</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1633">
+        <v>16.5</v>
+      </c>
+      <c r="B1633">
+        <v>2.75</v>
+      </c>
+      <c r="C1633">
+        <v>45</v>
+      </c>
+      <c r="D1633">
+        <v>6.0584600000000002</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1634">
+        <v>18.5</v>
+      </c>
+      <c r="B1634">
+        <v>2.75</v>
+      </c>
+      <c r="C1634">
+        <v>0</v>
+      </c>
+      <c r="D1634">
+        <v>3.3354370000000002</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1635">
+        <v>18.5</v>
+      </c>
+      <c r="B1635">
+        <v>2.75</v>
+      </c>
+      <c r="C1635">
+        <v>15</v>
+      </c>
+      <c r="D1635">
+        <v>3.8071920000000001</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1636">
+        <v>18.5</v>
+      </c>
+      <c r="B1636">
+        <v>2.75</v>
+      </c>
+      <c r="C1636">
+        <v>30</v>
+      </c>
+      <c r="D1636">
+        <v>4.4426609999999993</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1637">
+        <v>18.5</v>
+      </c>
+      <c r="B1637">
+        <v>2.75</v>
+      </c>
+      <c r="C1637">
+        <v>45</v>
+      </c>
+      <c r="D1637">
+        <v>5.899826</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1638">
+        <v>20.5</v>
+      </c>
+      <c r="B1638">
+        <v>2.75</v>
+      </c>
+      <c r="C1638">
+        <v>0</v>
+      </c>
+      <c r="D1638">
+        <v>3.5490879999999998</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1639">
+        <v>20.5</v>
+      </c>
+      <c r="B1639">
+        <v>2.75</v>
+      </c>
+      <c r="C1639">
+        <v>15</v>
+      </c>
+      <c r="D1639">
+        <v>4.0555019999999997</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1640">
+        <v>20.5</v>
+      </c>
+      <c r="B1640">
+        <v>2.75</v>
+      </c>
+      <c r="C1640">
+        <v>30</v>
+      </c>
+      <c r="D1640">
+        <v>4.2936679999999994</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1641">
+        <v>20.5</v>
+      </c>
+      <c r="B1641">
+        <v>2.75</v>
+      </c>
+      <c r="C1641">
+        <v>45</v>
+      </c>
+      <c r="D1641">
+        <v>5.7364419999999994</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1642">
+        <v>22.5</v>
+      </c>
+      <c r="B1642">
+        <v>2.75</v>
+      </c>
+      <c r="C1642">
+        <v>0</v>
+      </c>
+      <c r="D1642">
+        <v>3.485204</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1643">
+        <v>22.5</v>
+      </c>
+      <c r="B1643">
+        <v>2.75</v>
+      </c>
+      <c r="C1643">
+        <v>15</v>
+      </c>
+      <c r="D1643">
+        <v>4.0083510000000002</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1644">
+        <v>22.5</v>
+      </c>
+      <c r="B1644">
+        <v>2.75</v>
+      </c>
+      <c r="C1644">
+        <v>30</v>
+      </c>
+      <c r="D1644">
+        <v>4.6455130000000002</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1645">
+        <v>22.5</v>
+      </c>
+      <c r="B1645">
+        <v>2.75</v>
+      </c>
+      <c r="C1645">
+        <v>45</v>
+      </c>
+      <c r="D1645">
+        <v>5.6548019999999992</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1646">
+        <v>24.5</v>
+      </c>
+      <c r="B1646">
+        <v>2.75</v>
+      </c>
+      <c r="C1646">
+        <v>0</v>
+      </c>
+      <c r="D1646">
+        <v>3.4560569999999999</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1647">
+        <v>24.5</v>
+      </c>
+      <c r="B1647">
+        <v>2.75</v>
+      </c>
+      <c r="C1647">
+        <v>15</v>
+      </c>
+      <c r="D1647">
+        <v>3.9557690000000001</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1648">
+        <v>24.5</v>
+      </c>
+      <c r="B1648">
+        <v>2.75</v>
+      </c>
+      <c r="C1648">
+        <v>30</v>
+      </c>
+      <c r="D1648">
+        <v>4.6295479999999998</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1649">
+        <v>24.5</v>
+      </c>
+      <c r="B1649">
+        <v>2.75</v>
+      </c>
+      <c r="C1649">
+        <v>45</v>
+      </c>
+      <c r="D1649">
+        <v>5.7195930000000006</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1650">
+        <v>26.5</v>
+      </c>
+      <c r="B1650">
+        <v>2.75</v>
+      </c>
+      <c r="C1650">
+        <v>0</v>
+      </c>
+      <c r="D1650">
+        <v>3.4307189999999999</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1651">
+        <v>26.5</v>
+      </c>
+      <c r="B1651">
+        <v>2.75</v>
+      </c>
+      <c r="C1651">
+        <v>15</v>
+      </c>
+      <c r="D1651">
+        <v>3.9063370000000002</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1652">
+        <v>26.5</v>
+      </c>
+      <c r="B1652">
+        <v>2.75</v>
+      </c>
+      <c r="C1652">
+        <v>30</v>
+      </c>
+      <c r="D1652">
+        <v>4.5931810000000004</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1653">
+        <v>26.5</v>
+      </c>
+      <c r="B1653">
+        <v>2.75</v>
+      </c>
+      <c r="C1653">
+        <v>45</v>
+      </c>
+      <c r="D1653">
+        <v>5.7264810000000006</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1654">
+        <v>28.5</v>
+      </c>
+      <c r="B1654">
+        <v>2.75</v>
+      </c>
+      <c r="C1654">
+        <v>0</v>
+      </c>
+      <c r="D1654">
+        <v>3.401656</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1655">
+        <v>28.5</v>
+      </c>
+      <c r="B1655">
+        <v>2.75</v>
+      </c>
+      <c r="C1655">
+        <v>15</v>
+      </c>
+      <c r="D1655">
+        <v>3.8626330000000002</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1656">
+        <v>28.5</v>
+      </c>
+      <c r="B1656">
+        <v>2.75</v>
+      </c>
+      <c r="C1656">
+        <v>30</v>
+      </c>
+      <c r="D1656">
+        <v>4.5604760000000004</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1657">
+        <v>28.5</v>
+      </c>
+      <c r="B1657">
+        <v>2.75</v>
+      </c>
+      <c r="C1657">
+        <v>45</v>
+      </c>
+      <c r="D1657">
+        <v>5.7245210000000002</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1658">
+        <v>30.5</v>
+      </c>
+      <c r="B1658">
+        <v>2.75</v>
+      </c>
+      <c r="C1658">
+        <v>0</v>
+      </c>
+      <c r="D1658">
+        <v>3.370841</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1659">
+        <v>30.5</v>
+      </c>
+      <c r="B1659">
+        <v>2.75</v>
+      </c>
+      <c r="C1659">
+        <v>15</v>
+      </c>
+      <c r="D1659">
+        <v>3.8276159999999999</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1660">
+        <v>30.5</v>
+      </c>
+      <c r="B1660">
+        <v>2.75</v>
+      </c>
+      <c r="C1660">
+        <v>30</v>
+      </c>
+      <c r="D1660">
+        <v>4.5386930000000003</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1661">
+        <v>30.5</v>
+      </c>
+      <c r="B1661">
+        <v>2.75</v>
+      </c>
+      <c r="C1661">
+        <v>45</v>
+      </c>
+      <c r="D1661">
+        <v>5.7121339999999998</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1662">
+        <v>32.5</v>
+      </c>
+      <c r="B1662">
+        <v>2.75</v>
+      </c>
+      <c r="C1662">
+        <v>0</v>
+      </c>
+      <c r="D1662">
+        <v>3.349672</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1663">
+        <v>32.5</v>
+      </c>
+      <c r="B1663">
+        <v>2.75</v>
+      </c>
+      <c r="C1663">
+        <v>15</v>
+      </c>
+      <c r="D1663">
+        <v>3.7966950000000002</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1664">
+        <v>32.5</v>
+      </c>
+      <c r="B1664">
+        <v>2.75</v>
+      </c>
+      <c r="C1664">
+        <v>30</v>
+      </c>
+      <c r="D1664">
+        <v>4.5170030000000008</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1665">
+        <v>32.5</v>
+      </c>
+      <c r="B1665">
+        <v>2.75</v>
+      </c>
+      <c r="C1665">
+        <v>45</v>
+      </c>
+      <c r="D1665">
+        <v>5.6966380000000001</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1666">
+        <v>34.5</v>
+      </c>
+      <c r="B1666">
+        <v>2.75</v>
+      </c>
+      <c r="C1666">
+        <v>0</v>
+      </c>
+      <c r="D1666">
+        <v>3.3269980000000001</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1667">
+        <v>34.5</v>
+      </c>
+      <c r="B1667">
+        <v>2.75</v>
+      </c>
+      <c r="C1667">
+        <v>15</v>
+      </c>
+      <c r="D1667">
+        <v>3.7610790000000001</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1668">
+        <v>34.5</v>
+      </c>
+      <c r="B1668">
+        <v>2.75</v>
+      </c>
+      <c r="C1668">
+        <v>30</v>
+      </c>
+      <c r="D1668">
+        <v>4.4720899999999997</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1669">
+        <v>34.5</v>
+      </c>
+      <c r="B1669">
+        <v>2.75</v>
+      </c>
+      <c r="C1669">
+        <v>45</v>
+      </c>
+      <c r="D1669">
+        <v>5.6650019999999994</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1670">
+        <v>35</v>
+      </c>
+      <c r="B1670">
+        <v>2.75</v>
+      </c>
+      <c r="C1670">
+        <v>0</v>
+      </c>
+      <c r="D1670">
+        <v>3.3192460000000001</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1671">
+        <v>35</v>
+      </c>
+      <c r="B1671">
+        <v>2.75</v>
+      </c>
+      <c r="C1671">
+        <v>15</v>
+      </c>
+      <c r="D1671">
+        <v>3.7504689999999998</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1672">
+        <v>35</v>
+      </c>
+      <c r="B1672">
+        <v>2.75</v>
+      </c>
+      <c r="C1672">
+        <v>30</v>
+      </c>
+      <c r="D1672">
+        <v>4.460839</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1673">
+        <v>35</v>
+      </c>
+      <c r="B1673">
+        <v>2.75</v>
+      </c>
+      <c r="C1673">
+        <v>45</v>
+      </c>
+      <c r="D1673">
+        <v>5.6536299999999997</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1674">
+        <v>0.5</v>
+      </c>
+      <c r="B1674">
+        <v>3</v>
+      </c>
+      <c r="C1674">
+        <v>0</v>
+      </c>
+      <c r="D1674">
+        <v>6.5808309999999999</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1675">
+        <v>0.5</v>
+      </c>
+      <c r="B1675">
+        <v>3</v>
+      </c>
+      <c r="C1675">
+        <v>15</v>
+      </c>
+      <c r="D1675">
+        <v>7.0974209999999998</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1676">
+        <v>0.5</v>
+      </c>
+      <c r="B1676">
+        <v>3</v>
+      </c>
+      <c r="C1676">
+        <v>30</v>
+      </c>
+      <c r="D1676">
+        <v>8.1152660000000001</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1677">
+        <v>0.5</v>
+      </c>
+      <c r="B1677">
+        <v>3</v>
+      </c>
+      <c r="C1677">
+        <v>45</v>
+      </c>
+      <c r="D1677">
+        <v>10.333130000000001</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1678">
+        <v>2.5</v>
+      </c>
+      <c r="B1678">
+        <v>3</v>
+      </c>
+      <c r="C1678">
+        <v>0</v>
+      </c>
+      <c r="D1678">
+        <v>5.4326089999999994</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1679">
+        <v>2.5</v>
+      </c>
+      <c r="B1679">
+        <v>3</v>
+      </c>
+      <c r="C1679">
+        <v>15</v>
+      </c>
+      <c r="D1679">
+        <v>6.0825199999999997</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1680">
+        <v>2.5</v>
+      </c>
+      <c r="B1680">
+        <v>3</v>
+      </c>
+      <c r="C1680">
+        <v>30</v>
+      </c>
+      <c r="D1680">
+        <v>7.0237349999999994</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1681">
+        <v>2.5</v>
+      </c>
+      <c r="B1681">
+        <v>3</v>
+      </c>
+      <c r="C1681">
+        <v>45</v>
+      </c>
+      <c r="D1681">
+        <v>9.1207100000000008</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1682">
+        <v>4.5</v>
+      </c>
+      <c r="B1682">
+        <v>3</v>
+      </c>
+      <c r="C1682">
+        <v>0</v>
+      </c>
+      <c r="D1682">
+        <v>4.9556100000000001</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1683">
+        <v>4.5</v>
+      </c>
+      <c r="B1683">
+        <v>3</v>
+      </c>
+      <c r="C1683">
+        <v>15</v>
+      </c>
+      <c r="D1683">
+        <v>5.61911</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1684">
+        <v>4.5</v>
+      </c>
+      <c r="B1684">
+        <v>3</v>
+      </c>
+      <c r="C1684">
+        <v>30</v>
+      </c>
+      <c r="D1684">
+        <v>6.5173189999999996</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1685">
+        <v>4.5</v>
+      </c>
+      <c r="B1685">
+        <v>3</v>
+      </c>
+      <c r="C1685">
+        <v>45</v>
+      </c>
+      <c r="D1685">
+        <v>8.5417249999999996</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1686">
+        <v>6.5</v>
+      </c>
+      <c r="B1686">
+        <v>3</v>
+      </c>
+      <c r="C1686">
+        <v>0</v>
+      </c>
+      <c r="D1686">
+        <v>4.6424450000000004</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1687">
+        <v>6.5</v>
+      </c>
+      <c r="B1687">
+        <v>3</v>
+      </c>
+      <c r="C1687">
+        <v>15</v>
+      </c>
+      <c r="D1687">
+        <v>5.3046170000000004</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1688">
+        <v>6.5</v>
+      </c>
+      <c r="B1688">
+        <v>3</v>
+      </c>
+      <c r="C1688">
+        <v>30</v>
+      </c>
+      <c r="D1688">
+        <v>6.1643290000000004</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1689">
+        <v>6.5</v>
+      </c>
+      <c r="B1689">
+        <v>3</v>
+      </c>
+      <c r="C1689">
+        <v>45</v>
+      </c>
+      <c r="D1689">
+        <v>8.1270400000000009</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1690">
+        <v>8.5</v>
+      </c>
+      <c r="B1690">
+        <v>3</v>
+      </c>
+      <c r="C1690">
+        <v>0</v>
+      </c>
+      <c r="D1690">
+        <v>4.4174519999999999</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1691">
+        <v>8.5</v>
+      </c>
+      <c r="B1691">
+        <v>3</v>
+      </c>
+      <c r="C1691">
+        <v>15</v>
+      </c>
+      <c r="D1691">
+        <v>5.0775509999999997</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1692">
+        <v>8.5</v>
+      </c>
+      <c r="B1692">
+        <v>3</v>
+      </c>
+      <c r="C1692">
+        <v>30</v>
+      </c>
+      <c r="D1692">
+        <v>5.8850380000000007</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1693">
+        <v>8.5</v>
+      </c>
+      <c r="B1693">
+        <v>3</v>
+      </c>
+      <c r="C1693">
+        <v>45</v>
+      </c>
+      <c r="D1693">
+        <v>7.9767289999999997</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1694">
+        <v>10.5</v>
+      </c>
+      <c r="B1694">
+        <v>3</v>
+      </c>
+      <c r="C1694">
+        <v>0</v>
+      </c>
+      <c r="D1694">
+        <v>4.2333160000000003</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1695">
+        <v>10.5</v>
+      </c>
+      <c r="B1695">
+        <v>3</v>
+      </c>
+      <c r="C1695">
+        <v>15</v>
+      </c>
+      <c r="D1695">
+        <v>5.04495</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1696">
+        <v>10.5</v>
+      </c>
+      <c r="B1696">
+        <v>3</v>
+      </c>
+      <c r="C1696">
+        <v>30</v>
+      </c>
+      <c r="D1696">
+        <v>5.8379599999999998</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1697">
+        <v>10.5</v>
+      </c>
+      <c r="B1697">
+        <v>3</v>
+      </c>
+      <c r="C1697">
+        <v>45</v>
+      </c>
+      <c r="D1697">
+        <v>7.6667529999999999</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1698">
+        <v>12.5</v>
+      </c>
+      <c r="B1698">
+        <v>3</v>
+      </c>
+      <c r="C1698">
+        <v>0</v>
+      </c>
+      <c r="D1698">
+        <v>4.2212680000000002</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1699">
+        <v>12.5</v>
+      </c>
+      <c r="B1699">
+        <v>3</v>
+      </c>
+      <c r="C1699">
+        <v>15</v>
+      </c>
+      <c r="D1699">
+        <v>4.8804629999999998</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1700">
+        <v>12.5</v>
+      </c>
+      <c r="B1700">
+        <v>3</v>
+      </c>
+      <c r="C1700">
+        <v>30</v>
+      </c>
+      <c r="D1700">
+        <v>5.6310409999999997</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1701">
+        <v>12.5</v>
+      </c>
+      <c r="B1701">
+        <v>3</v>
+      </c>
+      <c r="C1701">
+        <v>45</v>
+      </c>
+      <c r="D1701">
+        <v>7.3996009999999997</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1702">
+        <v>14.5</v>
+      </c>
+      <c r="B1702">
+        <v>3</v>
+      </c>
+      <c r="C1702">
+        <v>0</v>
+      </c>
+      <c r="D1702">
+        <v>4.078951</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1703">
+        <v>14.5</v>
+      </c>
+      <c r="B1703">
+        <v>3</v>
+      </c>
+      <c r="C1703">
+        <v>15</v>
+      </c>
+      <c r="D1703">
+        <v>4.7273610000000001</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1704">
+        <v>14.5</v>
+      </c>
+      <c r="B1704">
+        <v>3</v>
+      </c>
+      <c r="C1704">
+        <v>30</v>
+      </c>
+      <c r="D1704">
+        <v>5.458996</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1705">
+        <v>14.5</v>
+      </c>
+      <c r="B1705">
+        <v>3</v>
+      </c>
+      <c r="C1705">
+        <v>45</v>
+      </c>
+      <c r="D1705">
+        <v>7.1778440000000003</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1706">
+        <v>16.5</v>
+      </c>
+      <c r="B1706">
+        <v>3</v>
+      </c>
+      <c r="C1706">
+        <v>0</v>
+      </c>
+      <c r="D1706">
+        <v>3.9634490000000002</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1707">
+        <v>16.5</v>
+      </c>
+      <c r="B1707">
+        <v>3</v>
+      </c>
+      <c r="C1707">
+        <v>15</v>
+      </c>
+      <c r="D1707">
+        <v>4.5866809999999996</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1708">
+        <v>16.5</v>
+      </c>
+      <c r="B1708">
+        <v>3</v>
+      </c>
+      <c r="C1708">
+        <v>30</v>
+      </c>
+      <c r="D1708">
+        <v>5.3034889999999999</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1709">
+        <v>16.5</v>
+      </c>
+      <c r="B1709">
+        <v>3</v>
+      </c>
+      <c r="C1709">
+        <v>45</v>
+      </c>
+      <c r="D1709">
+        <v>6.9841480000000002</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1710">
+        <v>18.5</v>
+      </c>
+      <c r="B1710">
+        <v>3</v>
+      </c>
+      <c r="C1710">
+        <v>0</v>
+      </c>
+      <c r="D1710">
+        <v>3.8542540000000001</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1711">
+        <v>18.5</v>
+      </c>
+      <c r="B1711">
+        <v>3</v>
+      </c>
+      <c r="C1711">
+        <v>15</v>
+      </c>
+      <c r="D1711">
+        <v>4.4647839999999999</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1712">
+        <v>18.5</v>
+      </c>
+      <c r="B1712">
+        <v>3</v>
+      </c>
+      <c r="C1712">
+        <v>30</v>
+      </c>
+      <c r="D1712">
+        <v>5.1627139999999994</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1713">
+        <v>18.5</v>
+      </c>
+      <c r="B1713">
+        <v>3</v>
+      </c>
+      <c r="C1713">
+        <v>45</v>
+      </c>
+      <c r="D1713">
+        <v>6.8120280000000006</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1714">
+        <v>20.5</v>
+      </c>
+      <c r="B1714">
+        <v>3</v>
+      </c>
+      <c r="C1714">
+        <v>0</v>
+      </c>
+      <c r="D1714">
+        <v>3.758254</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1715">
+        <v>20.5</v>
+      </c>
+      <c r="B1715">
+        <v>3</v>
+      </c>
+      <c r="C1715">
+        <v>15</v>
+      </c>
+      <c r="D1715">
+        <v>4.3575990000000004</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1716">
+        <v>20.5</v>
+      </c>
+      <c r="B1716">
+        <v>3</v>
+      </c>
+      <c r="C1716">
+        <v>30</v>
+      </c>
+      <c r="D1716">
+        <v>5.044168</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1717">
+        <v>20.5</v>
+      </c>
+      <c r="B1717">
+        <v>3</v>
+      </c>
+      <c r="C1717">
+        <v>45</v>
+      </c>
+      <c r="D1717">
+        <v>6.6682860000000002</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1718">
+        <v>22.5</v>
+      </c>
+      <c r="B1718">
+        <v>3</v>
+      </c>
+      <c r="C1718">
+        <v>0</v>
+      </c>
+      <c r="D1718">
+        <v>3.6758670000000002</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1719">
+        <v>22.5</v>
+      </c>
+      <c r="B1719">
+        <v>3</v>
+      </c>
+      <c r="C1719">
+        <v>15</v>
+      </c>
+      <c r="D1719">
+        <v>4.2539300000000004</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1720">
+        <v>22.5</v>
+      </c>
+      <c r="B1720">
+        <v>3</v>
+      </c>
+      <c r="C1720">
+        <v>30</v>
+      </c>
+      <c r="D1720">
+        <v>4.9369239999999994</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1721">
+        <v>22.5</v>
+      </c>
+      <c r="B1721">
+        <v>3</v>
+      </c>
+      <c r="C1721">
+        <v>45</v>
+      </c>
+      <c r="D1721">
+        <v>6.5259320000000001</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1722">
+        <v>24.5</v>
+      </c>
+      <c r="B1722">
+        <v>3</v>
+      </c>
+      <c r="C1722">
+        <v>0</v>
+      </c>
+      <c r="D1722">
+        <v>3.587269</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1723">
+        <v>24.5</v>
+      </c>
+      <c r="B1723">
+        <v>3</v>
+      </c>
+      <c r="C1723">
+        <v>15</v>
+      </c>
+      <c r="D1723">
+        <v>4.4613480000000001</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1724">
+        <v>24.5</v>
+      </c>
+      <c r="B1724">
+        <v>3</v>
+      </c>
+      <c r="C1724">
+        <v>30</v>
+      </c>
+      <c r="D1724">
+        <v>4.8261119999999993</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1725">
+        <v>24.5</v>
+      </c>
+      <c r="B1725">
+        <v>3</v>
+      </c>
+      <c r="C1725">
+        <v>45</v>
+      </c>
+      <c r="D1725">
+        <v>6.4065079999999996</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1726">
+        <v>26.5</v>
+      </c>
+      <c r="B1726">
+        <v>3</v>
+      </c>
+      <c r="C1726">
+        <v>0</v>
+      </c>
+      <c r="D1726">
+        <v>3.498669</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1727">
+        <v>26.5</v>
+      </c>
+      <c r="B1727">
+        <v>3</v>
+      </c>
+      <c r="C1727">
+        <v>15</v>
+      </c>
+      <c r="D1727">
+        <v>4.382307</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1728">
+        <v>26.5</v>
+      </c>
+      <c r="B1728">
+        <v>3</v>
+      </c>
+      <c r="C1728">
+        <v>30</v>
+      </c>
+      <c r="D1728">
+        <v>4.7029460000000007</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1729">
+        <v>26.5</v>
+      </c>
+      <c r="B1729">
+        <v>3</v>
+      </c>
+      <c r="C1729">
+        <v>45</v>
+      </c>
+      <c r="D1729">
+        <v>6.2659159999999998</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1730">
+        <v>28.5</v>
+      </c>
+      <c r="B1730">
+        <v>3</v>
+      </c>
+      <c r="C1730">
+        <v>0</v>
+      </c>
+      <c r="D1730">
+        <v>3.7835079999999999</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1731">
+        <v>28.5</v>
+      </c>
+      <c r="B1731">
+        <v>3</v>
+      </c>
+      <c r="C1731">
+        <v>15</v>
+      </c>
+      <c r="D1731">
+        <v>4.344074</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1732">
+        <v>28.5</v>
+      </c>
+      <c r="B1732">
+        <v>3</v>
+      </c>
+      <c r="C1732">
+        <v>30</v>
+      </c>
+      <c r="D1732">
+        <v>5.0782049999999996</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1733">
+        <v>28.5</v>
+      </c>
+      <c r="B1733">
+        <v>3</v>
+      </c>
+      <c r="C1733">
+        <v>45</v>
+      </c>
+      <c r="D1733">
+        <v>6.1703139999999994</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1734">
+        <v>30.5</v>
+      </c>
+      <c r="B1734">
+        <v>3</v>
+      </c>
+      <c r="C1734">
+        <v>0</v>
+      </c>
+      <c r="D1734">
+        <v>3.7501150000000001</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1735">
+        <v>30.5</v>
+      </c>
+      <c r="B1735">
+        <v>3</v>
+      </c>
+      <c r="C1735">
+        <v>15</v>
+      </c>
+      <c r="D1735">
+        <v>4.2998669999999999</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1736">
+        <v>30.5</v>
+      </c>
+      <c r="B1736">
+        <v>3</v>
+      </c>
+      <c r="C1736">
+        <v>30</v>
+      </c>
+      <c r="D1736">
+        <v>5.0672119999999996</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1737">
+        <v>30.5</v>
+      </c>
+      <c r="B1737">
+        <v>3</v>
+      </c>
+      <c r="C1737">
+        <v>45</v>
+      </c>
+      <c r="D1737">
+        <v>6.2039900000000001</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1738">
+        <v>32.5</v>
+      </c>
+      <c r="B1738">
+        <v>3</v>
+      </c>
+      <c r="C1738">
+        <v>0</v>
+      </c>
+      <c r="D1738">
+        <v>3.7319390000000001</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1739">
+        <v>32.5</v>
+      </c>
+      <c r="B1739">
+        <v>3</v>
+      </c>
+      <c r="C1739">
+        <v>15</v>
+      </c>
+      <c r="D1739">
+        <v>4.2578690000000003</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1740">
+        <v>32.5</v>
+      </c>
+      <c r="B1740">
+        <v>3</v>
+      </c>
+      <c r="C1740">
+        <v>30</v>
+      </c>
+      <c r="D1740">
+        <v>5.0409010000000007</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1741">
+        <v>32.5</v>
+      </c>
+      <c r="B1741">
+        <v>3</v>
+      </c>
+      <c r="C1741">
+        <v>45</v>
+      </c>
+      <c r="D1741">
+        <v>6.2309649999999994</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1742">
+        <v>34.5</v>
+      </c>
+      <c r="B1742">
+        <v>3</v>
+      </c>
+      <c r="C1742">
+        <v>0</v>
+      </c>
+      <c r="D1742">
+        <v>3.706054</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1743">
+        <v>34.5</v>
+      </c>
+      <c r="B1743">
+        <v>3</v>
+      </c>
+      <c r="C1743">
+        <v>15</v>
+      </c>
+      <c r="D1743">
+        <v>4.2194130000000003</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1744">
+        <v>34.5</v>
+      </c>
+      <c r="B1744">
+        <v>3</v>
+      </c>
+      <c r="C1744">
+        <v>30</v>
+      </c>
+      <c r="D1744">
+        <v>5.009728</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1745">
+        <v>34.5</v>
+      </c>
+      <c r="B1745">
+        <v>3</v>
+      </c>
+      <c r="C1745">
+        <v>45</v>
+      </c>
+      <c r="D1745">
+        <v>6.2479629999999986</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1746">
+        <v>35</v>
+      </c>
+      <c r="B1746">
+        <v>3</v>
+      </c>
+      <c r="C1746">
+        <v>0</v>
+      </c>
+      <c r="D1746">
+        <v>3.69977</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1747">
+        <v>35</v>
+      </c>
+      <c r="B1747">
+        <v>3</v>
+      </c>
+      <c r="C1747">
+        <v>15</v>
+      </c>
+      <c r="D1747">
+        <v>4.2109640000000006</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1748">
+        <v>35</v>
+      </c>
+      <c r="B1748">
+        <v>3</v>
+      </c>
+      <c r="C1748">
+        <v>30</v>
+      </c>
+      <c r="D1748">
+        <v>5.0036100000000001</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1749">
+        <v>35</v>
+      </c>
+      <c r="B1749">
+        <v>3</v>
+      </c>
+      <c r="C1749">
+        <v>45</v>
+      </c>
+      <c r="D1749">
+        <v>6.240208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
